--- a/data/ChemicalDescriptions.xlsx
+++ b/data/ChemicalDescriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3E8F46E8-3A83-400C-A1D4-CB60954EF83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{9B7C963D-DFB6-4BA9-AE55-289EF0EE9DA6}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{3E8F46E8-3A83-400C-A1D4-CB60954EF83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2006DC36-7A54-4182-8891-B93CD4C7D0E1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chemical List (589)" sheetId="5" r:id="rId1"/>
@@ -10994,10 +10994,6 @@
     <t>Alachlor is an aromatic amide that is N-(2,6-diethylphenyl)acetamide substituted by a methoxymethyl group at at the nitrogen atom while one of the hydrogens of the methyl group has been replaced by a chlorine atom. It has a role as a herbicide, an environmental contaminant and a xenobiotic. It is an organochlorine compound, a monocarboxylic acid amide and an aromatic amide. It derives from a N-phenylacetamide.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aldicarb is a carbamate insecticide which is the active substance in the pesticide Temik. It is effective against thrips, aphids, spider mites, lygus, fleahoppers, and leafminers, but is primarily used as a nematicide. Aldicarb is a cholinesterase inhibitor which prevents the breakdown of acetylcholine in the synapse. In case of severe poisoning, the victim dies of respiratory failure. Aldicarb is one of the most widely used pesticides internationally, and is also one of the most environmentally toxic. Aldicarb poisoning from agricultural water runoff has led to the destruction of healthy ecosystems and the irreversible poisoning of fertile agricultural land.
-</t>
-  </si>
-  <si>
     <t>Aldrin is an organochlorine compound resulting from the Diels-Alder reaction of hexachlorocyclopentadiene with norbornadiene. A proinsecticide (by epoxidation of the non-chlorinated double bond to give dieldrin), it was widely used as an insecticide before being banned in the 1970s as a persistent organic pollutant. It has a role as a persistent organic pollutant and a proinsecticide. It is an organochlorine insecticide and an organochlorine compound.</t>
   </si>
   <si>
@@ -11022,10 +11018,6 @@
     <t>Aspirin is an orally administered non-steroidal antiinflammatory agent. Acetylsalicylic acid binds to and acetylates serine residues in cyclooxygenases, resulting in decreased synthesis of prostaglandin, platelet aggregation, and inflammation. This agent exhibits analgesic, antipyretic, and anticoagulant properties.</t>
   </si>
   <si>
-    <t xml:space="preserve">Atrazine is an herbicide that does not occur naturally. Pure atrazine is an odorless, white powder that is not very volatile, reactive, or flammable and that will dissolve in water. Atrazine is used to kill weeds, primarily on farms, but has also been used on highway and railroad rights-of-way. The EPA now restricts how atrazine can be used and applied; only trained people are allowed to spray it.
-</t>
-  </si>
-  <si>
     <t>Auramine O is a hydrochloride obtained by combining 4,4'-carbonimidoylbis(N,N-dimethylaniline) with one molar equivalent of hydrogen chloride. A fluorescent stain for demonstrating acid fast organisms in a method similar to the Ziehl Neelsen. It also can be used to make a fluorescent Schiff reagent. It has a role as a fluorochrome and a histological dye. It contains an auramine O(1+).</t>
   </si>
   <si>
@@ -11272,10 +11264,6 @@
     <t>Dicamba is a methoxybenzoic acid that is O-methylsalicylic acid substituted by chloro groups at positions 3 and 6. It has a role as a xenobiotic, an environmental contaminant, a herbicide, a synthetic auxin and an agrochemical. It is a methoxybenzoic acid and a dichlorobenzene. It is a conjugate acid of a 3,6-dichloro-2-methoxybenzoate.</t>
   </si>
   <si>
-    <t xml:space="preserve">2,6-dichlorobenzonitrile is a nitrile that is benzonitrile which is substituted by chlorines at positions 2 and 6. A cellulose synthesis inhibitor, it is used as a pre-emergent and early post-emergent herbicide. It has a role as a herbicide, an agrochemical, a cellulose synthesis inhibitor, a xenobiotic and an environmental contaminant. It is a nitrile and a dichlorobenzene. It derives from a benzonitrile.
-</t>
-  </si>
-  <si>
     <t>Dichloroacetic acid, often abbreviated DCA, is an acid analogue of acetic acid in which two of the three hydrogen atoms of the methyl group have been replaced by chlorine atoms. Salts of DCA are used as drugs since they inhibit the enzyme pyruvate dehydrogenase kinase. Early reports of its activity against brain cancer cells led patients to treat themselves with DCA, which is commercially available in non-pharmaceutical grade. A phase 1 study in 5 patients concluded that DCA was safe, but wasn't designed to establish effectiveness. DCA was approved for use in Canada in 1989 (as a topical formulation for treatment of warts and for cauterization and removal of a wide variety of skin and tissue lesions), but was cancelled post market.</t>
   </si>
   <si>
@@ -11294,10 +11282,6 @@
     <t>Dicofol or kelthane is a white crystalline, wettable powder dissolved in a liquid carrier, (water). The primary hazard is the threat to the environment. Immediate steps should be taken to limit its spread to the environment. Since it is a liquid it can easily penetrate the soil and contaminate groundwater and nearby streams. It can cause illness by inhalation, skin absorption, and/or ingestion. It is used as a pesticide.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dicrotophos is a dialkyl phosphate and an organophosphate insecticide. It has a role as an EC 3.1.1.7 (acetylcholinesterase) inhibitor, an acaricide, an avicide and an agrochemical.
-</t>
-  </si>
-  <si>
     <t>Dieldrin is an organochlorine compound resulting from the epoxidation of the double bond of aldrin. It is the active metabolite of the proinsecticde aldrin. It has a role as a xenobiotic and a carcinogenic agent. It is an organochlorine insecticide, an organochlorine compound and an epoxide. It derives from an aldrin.</t>
   </si>
   <si>
@@ -12054,10 +12038,6 @@
     <t xml:space="preserve">Endocrine Disruption Potential. Significant Estrogen and Androgen Receptor activity seen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Triflumizole is a carboxamidine resulting from the formal condensation of the amino group of 4-chloro-2-(trifluoromethyl)aniline with the oxygen of the acetyl group of N-(propoxyacetyl)imidazole. A sterol demethylation inhibitor, it is used as a fungicide for the control of powdery mildew, scab and other diseases on a variety of crops. It has a role as an EC 1.14.13.70 (sterol 14alpha-demethylase) inhibitor and an antifungal agrochemical. It is a member of monochlorobenzenes, a member of imidazoles, a member of (trifluoromethyl)benzenes, a carboxamidine, an ether, a conazole fungicide and an imidazole fungicide.
-</t>
-  </si>
-  <si>
     <t>Trifluralin is a substituted aniline that is N,N-dipropylaniline substituted by a nitro groups at positions 2 and 6 and a trifluoromethyl group at position 4. It is an agrochemical used as a pre-emergence herbicide. It has a role as an environmental contaminant, a xenobiotic, a herbicide and an agrochemical. It is a C-nitro compound, a member of (trifluoromethyl)benzenes and a substituted aniline.</t>
   </si>
   <si>
@@ -12104,6 +12084,21 @@
   </si>
   <si>
     <t>Fungicide; 3,5-dichloro-N-(1-chloro-3-methyl-2-oxopentan-3-yl)-4-methylbenzamide is a member of the class of benzamides obtained by formal condensation of the carboxy group of 3,5-dichloro-4-methylbenzamide with the amino group of 3-amino-1-chloro-3-methylpentan-2-one. It is a member of benzamides, an alpha-chloroketone and a dichlorobenzene.</t>
+  </si>
+  <si>
+    <t>Aldicarb is a carbamate insecticide which is the active substance in the pesticide Temik. It is effective against thrips, aphids, spider mites, lygus, fleahoppers, and leafminers, but is primarily used as a nematicide. Aldicarb is a cholinesterase inhibitor which prevents the breakdown of acetylcholine in the synapse. In case of severe poisoning, the victim dies of respiratory failure. Aldicarb is one of the most widely used pesticides internationally, and is also one of the most environmentally toxic. Aldicarb poisoning from agricultural water runoff has led to the destruction of healthy ecosystems and the irreversible poisoning of fertile agricultural land.</t>
+  </si>
+  <si>
+    <t>2,6-dichlorobenzonitrile is a nitrile that is benzonitrile which is substituted by chlorines at positions 2 and 6. A cellulose synthesis inhibitor, it is used as a pre-emergent and early post-emergent herbicide. It has a role as a herbicide, an agrochemical, a cellulose synthesis inhibitor, a xenobiotic and an environmental contaminant. It is a nitrile and a dichlorobenzene. It derives from a benzonitrile.</t>
+  </si>
+  <si>
+    <t>Dicrotophos is a dialkyl phosphate and an organophosphate insecticide. It has a role as an EC 3.1.1.7 (acetylcholinesterase) inhibitor, an acaricide, an avicide and an agrochemical.</t>
+  </si>
+  <si>
+    <t>Triflumizole is a carboxamidine resulting from the formal condensation of the amino group of 4-chloro-2-(trifluoromethyl)aniline with the oxygen of the acetyl group of N-(propoxyacetyl)imidazole. A sterol demethylation inhibitor, it is used as a fungicide for the control of powdery mildew, scab and other diseases on a variety of crops. It has a role as an EC 1.14.13.70 (sterol 14alpha-demethylase) inhibitor and an antifungal agrochemical. It is a member of monochlorobenzenes, a member of imidazoles, a member of (trifluoromethyl)benzenes, a carboxamidine, an ether, a conazole fungicide and an imidazole fungicide.</t>
+  </si>
+  <si>
+    <t>Atrazine is an herbicide that does not occur naturally. Pure atrazine is an odorless, white powder that is not very volatile, reactive, or flammable and that will dissolve in water. Atrazine is used to kill weeds, primarily on farms, but has also been used on highway and railroad rights-of-way. The EPA now restricts how atrazine can be used and applied; only trained people are allowed to spray it.</t>
   </si>
 </sst>
 </file>
@@ -12596,27 +12591,27 @@
   <dimension ref="A1:H590"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F187" sqref="F187"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="10" style="1" customWidth="1"/>
-    <col min="16" max="193" width="15.77734375" style="1" customWidth="1"/>
-    <col min="194" max="16384" width="8.77734375" style="1"/>
+    <col min="16" max="193" width="15.7109375" style="1" customWidth="1"/>
+    <col min="194" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -12642,7 +12637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2642</v>
       </c>
@@ -12668,7 +12663,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1106</v>
       </c>
@@ -12694,7 +12689,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2845</v>
       </c>
@@ -12720,7 +12715,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>546</v>
       </c>
@@ -12746,7 +12741,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2374</v>
       </c>
@@ -12772,7 +12767,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2662</v>
       </c>
@@ -12798,7 +12793,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>1840</v>
       </c>
@@ -12824,7 +12819,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2084</v>
       </c>
@@ -12850,7 +12845,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>1816</v>
       </c>
@@ -12876,7 +12871,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -12902,7 +12897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>904</v>
       </c>
@@ -12928,7 +12923,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>1788</v>
       </c>
@@ -12954,7 +12949,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>551</v>
       </c>
@@ -12980,7 +12975,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2060</v>
       </c>
@@ -13006,7 +13001,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>847</v>
       </c>
@@ -13032,7 +13027,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>1769</v>
       </c>
@@ -13058,7 +13053,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2671</v>
       </c>
@@ -13084,7 +13079,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>136</v>
       </c>
@@ -13110,7 +13105,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>1350</v>
       </c>
@@ -13136,7 +13131,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>1854</v>
       </c>
@@ -13162,7 +13157,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1750</v>
       </c>
@@ -13188,7 +13183,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2536</v>
       </c>
@@ -13214,7 +13209,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2319</v>
       </c>
@@ -13240,7 +13235,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>374</v>
       </c>
@@ -13266,7 +13261,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>321</v>
       </c>
@@ -13292,7 +13287,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>2507</v>
       </c>
@@ -13318,7 +13313,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>1722</v>
       </c>
@@ -13344,7 +13339,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>1226</v>
       </c>
@@ -13370,7 +13365,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>837</v>
       </c>
@@ -13396,7 +13391,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>269</v>
       </c>
@@ -13422,7 +13417,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2141</v>
       </c>
@@ -13448,7 +13443,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>2850</v>
       </c>
@@ -13474,7 +13469,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2244</v>
       </c>
@@ -13500,7 +13495,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2008</v>
       </c>
@@ -13526,7 +13521,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>861</v>
       </c>
@@ -13552,7 +13547,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>1221</v>
       </c>
@@ -13578,7 +13573,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>298</v>
       </c>
@@ -13604,7 +13599,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1154</v>
       </c>
@@ -13630,7 +13625,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>1496</v>
       </c>
@@ -13656,7 +13651,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -13682,7 +13677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>1958</v>
       </c>
@@ -13708,7 +13703,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>1359</v>
       </c>
@@ -13734,7 +13729,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>1759</v>
       </c>
@@ -13760,7 +13755,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>392</v>
       </c>
@@ -13786,7 +13781,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>2598</v>
       </c>
@@ -13812,7 +13807,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>1591</v>
       </c>
@@ -13838,7 +13833,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>1511</v>
       </c>
@@ -13864,7 +13859,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1732</v>
       </c>
@@ -13890,7 +13885,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>474</v>
       </c>
@@ -13916,7 +13911,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2831</v>
       </c>
@@ -13942,7 +13937,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>832</v>
       </c>
@@ -13968,7 +13963,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>317</v>
       </c>
@@ -13994,7 +13989,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>1453</v>
       </c>
@@ -14020,7 +14015,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>406</v>
       </c>
@@ -14046,7 +14041,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>487</v>
       </c>
@@ -14072,7 +14067,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>2545</v>
       </c>
@@ -14098,7 +14093,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>1246</v>
       </c>
@@ -14124,7 +14119,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>478</v>
       </c>
@@ -14150,7 +14145,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>1663</v>
       </c>
@@ -14176,7 +14171,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>629</v>
       </c>
@@ -14202,7 +14197,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>2710</v>
       </c>
@@ -14228,7 +14223,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>875</v>
       </c>
@@ -14254,7 +14249,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>634</v>
       </c>
@@ -14280,7 +14275,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>857</v>
       </c>
@@ -14306,7 +14301,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>991</v>
       </c>
@@ -14332,7 +14327,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>1340</v>
       </c>
@@ -14358,7 +14353,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>658</v>
       </c>
@@ -14384,7 +14379,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>2012</v>
       </c>
@@ -14410,7 +14405,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>2531</v>
       </c>
@@ -14436,7 +14431,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>1746</v>
       </c>
@@ -14462,7 +14457,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>1101</v>
       </c>
@@ -14488,7 +14483,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>1061</v>
       </c>
@@ -14514,7 +14509,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>2724</v>
       </c>
@@ -14540,7 +14535,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>1364</v>
       </c>
@@ -14566,7 +14561,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>742</v>
       </c>
@@ -14592,7 +14587,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>1131</v>
       </c>
@@ -14618,7 +14613,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>420</v>
       </c>
@@ -14644,7 +14639,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>1764</v>
       </c>
@@ -14670,7 +14665,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>827</v>
       </c>
@@ -14696,7 +14691,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>639</v>
       </c>
@@ -14722,7 +14717,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>673</v>
       </c>
@@ -14748,7 +14743,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>1369</v>
       </c>
@@ -14774,7 +14769,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>1201</v>
       </c>
@@ -14800,7 +14795,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>325</v>
       </c>
@@ -14826,7 +14821,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>40</v>
       </c>
@@ -14852,7 +14847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>688</v>
       </c>
@@ -14878,7 +14873,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>55</v>
       </c>
@@ -14904,7 +14899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>1336</v>
       </c>
@@ -14930,7 +14925,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>1850</v>
       </c>
@@ -14956,7 +14951,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>1579</v>
       </c>
@@ -14982,7 +14977,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>668</v>
       </c>
@@ -15008,7 +15003,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>2433</v>
       </c>
@@ -15034,7 +15029,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>205</v>
       </c>
@@ -15060,7 +15055,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>1491</v>
       </c>
@@ -15086,7 +15081,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>852</v>
       </c>
@@ -15112,7 +15107,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>1998</v>
       </c>
@@ -15138,7 +15133,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>948</v>
       </c>
@@ -15164,7 +15159,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>812</v>
       </c>
@@ -15190,7 +15185,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>2789</v>
       </c>
@@ -15216,7 +15211,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>1136</v>
       </c>
@@ -15242,7 +15237,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>2017</v>
       </c>
@@ -15268,7 +15263,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>19</v>
       </c>
@@ -15294,7 +15289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>273</v>
       </c>
@@ -15320,7 +15315,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>2502</v>
       </c>
@@ -15346,7 +15341,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>1051</v>
       </c>
@@ -15372,7 +15367,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>329</v>
       </c>
@@ -15398,7 +15393,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>1629</v>
       </c>
@@ -15424,7 +15419,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>1599</v>
       </c>
@@ -15450,7 +15445,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>1066</v>
       </c>
@@ -15476,7 +15471,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>807</v>
       </c>
@@ -15502,7 +15497,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>482</v>
       </c>
@@ -15528,7 +15523,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>2117</v>
       </c>
@@ -15554,7 +15549,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>2809</v>
       </c>
@@ -15580,7 +15575,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>1913</v>
       </c>
@@ -15606,7 +15601,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>1779</v>
       </c>
@@ -15632,7 +15627,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>1272</v>
       </c>
@@ -15658,7 +15653,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>2603</v>
       </c>
@@ -15684,7 +15679,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>1166</v>
       </c>
@@ -15710,7 +15705,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>88</v>
       </c>
@@ -15736,7 +15731,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>349</v>
       </c>
@@ -15762,7 +15757,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>986</v>
       </c>
@@ -15788,7 +15783,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>2315</v>
       </c>
@@ -15814,7 +15809,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>2779</v>
       </c>
@@ -15840,7 +15835,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
@@ -15866,7 +15861,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>1604</v>
       </c>
@@ -15892,7 +15887,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>1698</v>
       </c>
@@ -15918,7 +15913,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>303</v>
       </c>
@@ -15944,7 +15939,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>1536</v>
       </c>
@@ -15970,7 +15965,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>2705</v>
       </c>
@@ -15996,7 +15991,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>79</v>
       </c>
@@ -16022,7 +16017,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>977</v>
       </c>
@@ -16048,7 +16043,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>1501</v>
       </c>
@@ -16074,7 +16069,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>2229</v>
       </c>
@@ -16100,7 +16095,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>74</v>
       </c>
@@ -16126,7 +16121,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>929</v>
       </c>
@@ -16152,7 +16147,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>2254</v>
       </c>
@@ -16178,7 +16173,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>1988</v>
       </c>
@@ -16204,7 +16199,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>1150</v>
       </c>
@@ -16230,7 +16225,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>1754</v>
       </c>
@@ -16256,7 +16251,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>2516</v>
       </c>
@@ -16282,7 +16277,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>334</v>
       </c>
@@ -16308,7 +16303,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>1521</v>
       </c>
@@ -16334,7 +16329,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>2307</v>
       </c>
@@ -16360,7 +16355,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>1878</v>
       </c>
@@ -16386,7 +16381,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>2234</v>
       </c>
@@ -16412,7 +16407,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1126</v>
       </c>
@@ -16438,7 +16433,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>2003</v>
       </c>
@@ -16464,7 +16459,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>1146</v>
       </c>
@@ -16490,7 +16485,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>1654</v>
       </c>
@@ -16516,7 +16511,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>1028</v>
       </c>
@@ -16542,7 +16537,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>2799</v>
       </c>
@@ -16568,7 +16563,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>2549</v>
       </c>
@@ -16594,7 +16589,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>1141</v>
       </c>
@@ -16620,7 +16615,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>556</v>
       </c>
@@ -16646,7 +16641,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>958</v>
       </c>
@@ -16672,7 +16667,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>2239</v>
       </c>
@@ -16698,7 +16693,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>1000</v>
       </c>
@@ -16724,7 +16719,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>2354</v>
       </c>
@@ -16750,7 +16745,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>2031</v>
       </c>
@@ -16776,7 +16771,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>560</v>
       </c>
@@ -16802,7 +16797,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>244</v>
       </c>
@@ -16828,7 +16823,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>2359</v>
       </c>
@@ -16854,7 +16849,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>511</v>
       </c>
@@ -16880,7 +16875,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>2541</v>
       </c>
@@ -16906,7 +16901,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>1462</v>
       </c>
@@ -16932,7 +16927,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>410</v>
       </c>
@@ -16958,7 +16953,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="165" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>259</v>
       </c>
@@ -16975,7 +16970,7 @@
         <v>260</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>3654</v>
+        <v>4018</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>2875</v>
@@ -16984,7 +16979,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>2268</v>
       </c>
@@ -17001,7 +16996,7 @@
         <v>2269</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>3362</v>
@@ -17010,7 +17005,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>2107</v>
       </c>
@@ -17027,7 +17022,7 @@
         <v>2108</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>3332</v>
@@ -17036,7 +17031,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>2497</v>
       </c>
@@ -17053,7 +17048,7 @@
         <v>2498</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>3409</v>
@@ -17062,7 +17057,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>434</v>
       </c>
@@ -17079,7 +17074,7 @@
         <v>435</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>2969</v>
@@ -17088,7 +17083,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>1609</v>
       </c>
@@ -17105,7 +17100,7 @@
         <v>1610</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>3473</v>
@@ -17114,7 +17109,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>2558</v>
       </c>
@@ -17131,7 +17126,7 @@
         <v>2559</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>3421</v>
@@ -17140,7 +17135,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>2273</v>
       </c>
@@ -17166,7 +17161,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>2840</v>
       </c>
@@ -17192,7 +17187,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>149</v>
       </c>
@@ -17209,7 +17204,7 @@
         <v>150</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>2906</v>
@@ -17218,7 +17213,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>879</v>
       </c>
@@ -17244,7 +17239,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>1472</v>
       </c>
@@ -17261,7 +17256,7 @@
         <v>1473</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>3213</v>
@@ -17270,7 +17265,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>2563</v>
       </c>
@@ -17287,7 +17282,7 @@
         <v>2564</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>3663</v>
+        <v>4022</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>3422</v>
@@ -17296,7 +17291,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>2568</v>
       </c>
@@ -17313,7 +17308,7 @@
         <v>2569</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>3423</v>
@@ -17322,7 +17317,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>2774</v>
       </c>
@@ -17339,7 +17334,7 @@
         <v>2775</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>3019</v>
@@ -17348,7 +17343,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>884</v>
       </c>
@@ -17365,7 +17360,7 @@
         <v>885</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>3096</v>
@@ -17374,7 +17369,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>2277</v>
       </c>
@@ -17391,7 +17386,7 @@
         <v>2278</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>3364</v>
@@ -17400,7 +17395,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>214</v>
       </c>
@@ -17417,7 +17412,7 @@
         <v>215</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>2916</v>
@@ -17426,7 +17421,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>2734</v>
       </c>
@@ -17443,7 +17438,7 @@
         <v>2735</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>3457</v>
@@ -17452,7 +17447,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>1009</v>
       </c>
@@ -17469,7 +17464,7 @@
         <v>1010</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>3122</v>
@@ -17478,7 +17473,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>2224</v>
       </c>
@@ -17495,7 +17490,7 @@
         <v>2225</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>3354</v>
@@ -17504,7 +17499,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>153</v>
       </c>
@@ -17521,7 +17516,7 @@
         <v>154</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>2866</v>
@@ -17530,7 +17525,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>1614</v>
       </c>
@@ -17547,7 +17542,7 @@
         <v>1615</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>3239</v>
@@ -17556,7 +17551,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>288</v>
       </c>
@@ -17582,7 +17577,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>2521</v>
       </c>
@@ -17608,7 +17603,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>565</v>
       </c>
@@ -17625,7 +17620,7 @@
         <v>566</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>3027</v>
@@ -17634,7 +17629,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>570</v>
       </c>
@@ -17660,7 +17655,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>158</v>
       </c>
@@ -17677,7 +17672,7 @@
         <v>159</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>2910</v>
@@ -17686,7 +17681,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>2685</v>
       </c>
@@ -17712,7 +17707,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>995</v>
       </c>
@@ -17738,7 +17733,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>727</v>
       </c>
@@ -17764,7 +17759,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>1619</v>
       </c>
@@ -17790,7 +17785,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>2526</v>
       </c>
@@ -17816,7 +17811,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>163</v>
       </c>
@@ -17833,7 +17828,7 @@
         <v>164</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>2911</v>
@@ -17842,7 +17837,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>1448</v>
       </c>
@@ -17868,7 +17863,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>2813</v>
       </c>
@@ -17894,7 +17889,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>131</v>
       </c>
@@ -17911,7 +17906,7 @@
         <v>132</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>2863</v>
@@ -17920,7 +17915,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>842</v>
       </c>
@@ -17946,7 +17941,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>1477</v>
       </c>
@@ -17963,7 +17958,7 @@
         <v>1478</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>3214</v>
@@ -17972,7 +17967,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>889</v>
       </c>
@@ -17989,7 +17984,7 @@
         <v>890</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>3097</v>
@@ -17998,7 +17993,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>2055</v>
       </c>
@@ -18015,7 +18010,7 @@
         <v>2056</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>3037</v>
@@ -18024,7 +18019,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>2573</v>
       </c>
@@ -18041,7 +18036,7 @@
         <v>2574</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>3424</v>
@@ -18050,7 +18045,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>1171</v>
       </c>
@@ -18067,7 +18062,7 @@
         <v>1172</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>3154</v>
@@ -18076,7 +18071,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>2035</v>
       </c>
@@ -18093,7 +18088,7 @@
         <v>2036</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>3319</v>
@@ -18102,7 +18097,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>1973</v>
       </c>
@@ -18119,7 +18114,7 @@
         <v>1974</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>3308</v>
@@ -18128,7 +18123,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>1281</v>
       </c>
@@ -18145,7 +18140,7 @@
         <v>1282</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>3175</v>
@@ -18154,7 +18149,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>967</v>
       </c>
@@ -18171,7 +18166,7 @@
         <v>968</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>3113</v>
@@ -18180,7 +18175,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>2462</v>
       </c>
@@ -18197,7 +18192,7 @@
         <v>2463</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>3402</v>
@@ -18206,7 +18201,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>1091</v>
       </c>
@@ -18223,7 +18218,7 @@
         <v>1092</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>3138</v>
@@ -18232,7 +18227,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>2759</v>
       </c>
@@ -18249,7 +18244,7 @@
         <v>2760</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>3461</v>
@@ -18258,7 +18253,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>1727</v>
       </c>
@@ -18275,7 +18270,7 @@
         <v>1728</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>3261</v>
@@ -18284,7 +18279,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>1071</v>
       </c>
@@ -18301,7 +18296,7 @@
         <v>1072</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>3134</v>
@@ -18310,7 +18305,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>2145</v>
       </c>
@@ -18327,7 +18322,7 @@
         <v>2146</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>3340</v>
@@ -18336,7 +18331,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>899</v>
       </c>
@@ -18353,7 +18348,7 @@
         <v>900</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>3099</v>
@@ -18362,7 +18357,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>1250</v>
       </c>
@@ -18379,7 +18374,7 @@
         <v>1251</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>3469</v>
@@ -18388,7 +18383,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>13</v>
       </c>
@@ -18405,7 +18400,7 @@
         <v>14</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>2854</v>
@@ -18414,7 +18409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>1176</v>
       </c>
@@ -18431,7 +18426,7 @@
         <v>1177</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>3155</v>
@@ -18440,7 +18435,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>2583</v>
       </c>
@@ -18457,7 +18452,7 @@
         <v>2584</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>3426</v>
@@ -18466,7 +18461,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>2588</v>
       </c>
@@ -18483,7 +18478,7 @@
         <v>2589</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>3427</v>
@@ -18492,7 +18487,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>1181</v>
       </c>
@@ -18518,7 +18513,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>2593</v>
       </c>
@@ -18535,7 +18530,7 @@
         <v>2594</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>3428</v>
@@ -18544,7 +18539,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>1624</v>
       </c>
@@ -18561,7 +18556,7 @@
         <v>1625</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>3241</v>
@@ -18570,7 +18565,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>168</v>
       </c>
@@ -18587,7 +18582,7 @@
         <v>169</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>2912</v>
@@ -18596,7 +18591,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>1389</v>
       </c>
@@ -18613,7 +18608,7 @@
         <v>1390</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>3197</v>
@@ -18622,7 +18617,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>580</v>
       </c>
@@ -18639,7 +18634,7 @@
         <v>581</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>3031</v>
@@ -18648,7 +18643,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>747</v>
       </c>
@@ -18665,7 +18660,7 @@
         <v>748</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>3069</v>
@@ -18674,7 +18669,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>1096</v>
       </c>
@@ -18691,7 +18686,7 @@
         <v>1097</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="G234" s="5" t="s">
         <v>3139</v>
@@ -18700,7 +18695,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>2607</v>
       </c>
@@ -18717,7 +18712,7 @@
         <v>2608</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>3431</v>
@@ -18726,7 +18721,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>732</v>
       </c>
@@ -18743,7 +18738,7 @@
         <v>733</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>3065</v>
@@ -18752,7 +18747,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>29</v>
       </c>
@@ -18769,7 +18764,7 @@
         <v>30</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>2855</v>
@@ -18778,7 +18773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>2064</v>
       </c>
@@ -18795,7 +18790,7 @@
         <v>2065</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>3324</v>
@@ -18804,7 +18799,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>1211</v>
       </c>
@@ -18821,7 +18816,7 @@
         <v>1212</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>3162</v>
@@ -18830,7 +18825,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>1933</v>
       </c>
@@ -18847,7 +18842,7 @@
         <v>1934</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>3301</v>
@@ -18856,7 +18851,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>173</v>
       </c>
@@ -18873,7 +18868,7 @@
         <v>174</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>2867</v>
@@ -18882,7 +18877,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>145</v>
       </c>
@@ -18908,7 +18903,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>1938</v>
       </c>
@@ -18925,7 +18920,7 @@
         <v>1939</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>3302</v>
@@ -18934,7 +18929,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>909</v>
       </c>
@@ -18951,7 +18946,7 @@
         <v>910</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>3101</v>
@@ -18960,7 +18955,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>491</v>
       </c>
@@ -18977,7 +18972,7 @@
         <v>492</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>2982</v>
@@ -18986,7 +18981,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>2179</v>
       </c>
@@ -19003,7 +18998,7 @@
         <v>2180</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>3346</v>
@@ -19012,7 +19007,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>1737</v>
       </c>
@@ -19038,7 +19033,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>1868</v>
       </c>
@@ -19055,7 +19050,7 @@
         <v>1869</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>3289</v>
@@ -19064,7 +19059,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>590</v>
       </c>
@@ -19081,7 +19076,7 @@
         <v>591</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>3033</v>
@@ -19090,7 +19085,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>2040</v>
       </c>
@@ -19107,7 +19102,7 @@
         <v>2041</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>3320</v>
@@ -19116,7 +19111,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>439</v>
       </c>
@@ -19133,7 +19128,7 @@
         <v>440</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>2970</v>
@@ -19142,7 +19137,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>2764</v>
       </c>
@@ -19159,7 +19154,7 @@
         <v>2765</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>3462</v>
@@ -19168,7 +19163,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>1943</v>
       </c>
@@ -19185,7 +19180,7 @@
         <v>1944</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
       <c r="G253" s="5" t="s">
         <v>3303</v>
@@ -19194,7 +19189,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>1784</v>
       </c>
@@ -19211,7 +19206,7 @@
         <v>1785</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>3272</v>
@@ -19220,7 +19215,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>2259</v>
       </c>
@@ -19246,7 +19241,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>2437</v>
       </c>
@@ -19272,7 +19267,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>1712</v>
       </c>
@@ -19289,7 +19284,7 @@
         <v>1713</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>3258</v>
@@ -19298,7 +19293,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>541</v>
       </c>
@@ -19315,7 +19310,7 @@
         <v>542</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>3020</v>
@@ -19324,7 +19319,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>1948</v>
       </c>
@@ -19341,7 +19336,7 @@
         <v>1949</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>3304</v>
@@ -19350,7 +19345,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>444</v>
       </c>
@@ -19367,7 +19362,7 @@
         <v>445</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>2971</v>
@@ -19376,7 +19371,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>224</v>
       </c>
@@ -19393,7 +19388,7 @@
         <v>225</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>2874</v>
@@ -19402,7 +19397,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>496</v>
       </c>
@@ -19419,7 +19414,7 @@
         <v>497</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
       <c r="G262" s="5" t="s">
         <v>2983</v>
@@ -19428,7 +19423,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>1873</v>
       </c>
@@ -19445,7 +19440,7 @@
         <v>1874</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="G263" s="5" t="s">
         <v>3290</v>
@@ -19454,7 +19449,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>425</v>
       </c>
@@ -19471,7 +19466,7 @@
         <v>426</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
       <c r="G264" s="5" t="s">
         <v>2966</v>
@@ -19480,7 +19475,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>2170</v>
       </c>
@@ -19497,7 +19492,7 @@
         <v>2171</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="G265" s="5" t="s">
         <v>3345</v>
@@ -19506,7 +19501,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>697</v>
       </c>
@@ -19523,7 +19518,7 @@
         <v>698</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
       <c r="G266" s="5" t="s">
         <v>3057</v>
@@ -19532,7 +19527,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>2282</v>
       </c>
@@ -19549,7 +19544,7 @@
         <v>2283</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
       <c r="G267" s="5" t="s">
         <v>3365</v>
@@ -19558,7 +19553,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>1121</v>
       </c>
@@ -19575,7 +19570,7 @@
         <v>1122</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
       <c r="G268" s="5" t="s">
         <v>3144</v>
@@ -19584,7 +19579,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>401</v>
       </c>
@@ -19601,7 +19596,7 @@
         <v>402</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="G269" s="5" t="s">
         <v>2960</v>
@@ -19610,7 +19605,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>1516</v>
       </c>
@@ -19627,7 +19622,7 @@
         <v>1517</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
       <c r="G270" s="5" t="s">
         <v>3221</v>
@@ -19636,7 +19631,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>2045</v>
       </c>
@@ -19653,7 +19648,7 @@
         <v>2046</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
       <c r="G271" s="5" t="s">
         <v>3321</v>
@@ -19662,7 +19657,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>2617</v>
       </c>
@@ -19679,7 +19674,7 @@
         <v>2618</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
       <c r="G272" s="5" t="s">
         <v>3433</v>
@@ -19688,7 +19683,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>1717</v>
       </c>
@@ -19705,7 +19700,7 @@
         <v>1718</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
       <c r="G273" s="5" t="s">
         <v>3259</v>
@@ -19714,7 +19709,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>2622</v>
       </c>
@@ -19731,7 +19726,7 @@
         <v>2623</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
       <c r="G274" s="5" t="s">
         <v>3434</v>
@@ -19740,7 +19735,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>2804</v>
       </c>
@@ -19766,7 +19761,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>2263</v>
       </c>
@@ -19792,7 +19787,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>870</v>
       </c>
@@ -19818,7 +19813,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>865</v>
       </c>
@@ -19844,7 +19839,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>2835</v>
       </c>
@@ -19870,7 +19865,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>1443</v>
       </c>
@@ -19896,7 +19891,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>2817</v>
       </c>
@@ -19922,7 +19917,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>2822</v>
       </c>
@@ -19948,7 +19943,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>293</v>
       </c>
@@ -19974,7 +19969,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>692</v>
       </c>
@@ -19991,7 +19986,7 @@
         <v>693</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
       <c r="G284" s="5" t="s">
         <v>3056</v>
@@ -20000,7 +19995,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>264</v>
       </c>
@@ -20017,7 +20012,7 @@
         <v>265</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
       <c r="G285" s="5" t="s">
         <v>2923</v>
@@ -20026,7 +20021,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>122</v>
       </c>
@@ -20052,7 +20047,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>683</v>
       </c>
@@ -20069,7 +20064,7 @@
         <v>684</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
       <c r="G287" s="5" t="s">
         <v>3054</v>
@@ -20078,7 +20073,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>1306</v>
       </c>
@@ -20095,7 +20090,7 @@
         <v>1307</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
       <c r="G288" s="5" t="s">
         <v>3180</v>
@@ -20104,7 +20099,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>1673</v>
       </c>
@@ -20121,7 +20116,7 @@
         <v>1674</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>3746</v>
+        <v>4019</v>
       </c>
       <c r="G289" s="5" t="s">
         <v>3251</v>
@@ -20130,7 +20125,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>605</v>
       </c>
@@ -20147,7 +20142,7 @@
         <v>606</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>3747</v>
+        <v>3744</v>
       </c>
       <c r="G290" s="5" t="s">
         <v>3036</v>
@@ -20156,7 +20151,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>1196</v>
       </c>
@@ -20173,7 +20168,7 @@
         <v>1197</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>3748</v>
+        <v>3745</v>
       </c>
       <c r="G291" s="5" t="s">
         <v>3159</v>
@@ -20182,7 +20177,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>35</v>
       </c>
@@ -20199,7 +20194,7 @@
         <v>36</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>3749</v>
+        <v>3746</v>
       </c>
       <c r="G292" s="5" t="s">
         <v>2856</v>
@@ -20208,7 +20203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>1482</v>
       </c>
@@ -20225,7 +20220,7 @@
         <v>1483</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>3750</v>
+        <v>3747</v>
       </c>
       <c r="G293" s="5" t="s">
         <v>3215</v>
@@ -20234,7 +20229,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>600</v>
       </c>
@@ -20251,7 +20246,7 @@
         <v>601</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>3751</v>
+        <v>3748</v>
       </c>
       <c r="G294" s="5" t="s">
         <v>3035</v>
@@ -20260,7 +20255,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>1206</v>
       </c>
@@ -20277,7 +20272,7 @@
         <v>1207</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>3752</v>
+        <v>3749</v>
       </c>
       <c r="G295" s="5" t="s">
         <v>3161</v>
@@ -20286,7 +20281,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>2700</v>
       </c>
@@ -20303,7 +20298,7 @@
         <v>2701</v>
       </c>
       <c r="F296" s="12" t="s">
-        <v>3753</v>
+        <v>4020</v>
       </c>
       <c r="G296" s="5" t="s">
         <v>3450</v>
@@ -20312,7 +20307,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>2627</v>
       </c>
@@ -20329,7 +20324,7 @@
         <v>2628</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>3754</v>
+        <v>3750</v>
       </c>
       <c r="G297" s="5" t="s">
         <v>3435</v>
@@ -20338,7 +20333,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>2112</v>
       </c>
@@ -20355,7 +20350,7 @@
         <v>2113</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>3755</v>
+        <v>3751</v>
       </c>
       <c r="G298" s="5" t="s">
         <v>3333</v>
@@ -20364,7 +20359,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>2287</v>
       </c>
@@ -20381,7 +20376,7 @@
         <v>2288</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>3756</v>
+        <v>3752</v>
       </c>
       <c r="G299" s="5" t="s">
         <v>3366</v>
@@ -20390,7 +20385,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>914</v>
       </c>
@@ -20407,7 +20402,7 @@
         <v>915</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="G300" s="5" t="s">
         <v>3102</v>
@@ -20416,7 +20411,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>1374</v>
       </c>
@@ -20433,7 +20428,7 @@
         <v>1375</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="G301" s="5" t="s">
         <v>3194</v>
@@ -20442,7 +20437,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>1918</v>
       </c>
@@ -20459,7 +20454,7 @@
         <v>1919</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>3759</v>
+        <v>3755</v>
       </c>
       <c r="G302" s="5" t="s">
         <v>3299</v>
@@ -20468,7 +20463,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>2680</v>
       </c>
@@ -20485,7 +20480,7 @@
         <v>2681</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>3760</v>
+        <v>3756</v>
       </c>
       <c r="G303" s="5" t="s">
         <v>3446</v>
@@ -20494,7 +20489,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>1379</v>
       </c>
@@ -20511,7 +20506,7 @@
         <v>1380</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>3761</v>
+        <v>3757</v>
       </c>
       <c r="G304" s="5" t="s">
         <v>3195</v>
@@ -20520,7 +20515,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>183</v>
       </c>
@@ -20537,7 +20532,7 @@
         <v>184</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>3762</v>
+        <v>3758</v>
       </c>
       <c r="G305" s="5" t="s">
         <v>2913</v>
@@ -20546,7 +20541,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>2050</v>
       </c>
@@ -20563,7 +20558,7 @@
         <v>2051</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>3763</v>
+        <v>3759</v>
       </c>
       <c r="G306" s="5" t="s">
         <v>3322</v>
@@ -20572,7 +20567,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>2214</v>
       </c>
@@ -20589,7 +20584,7 @@
         <v>2215</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>3764</v>
+        <v>3760</v>
       </c>
       <c r="G307" s="5" t="s">
         <v>3558</v>
@@ -20598,7 +20593,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>1792</v>
       </c>
@@ -20615,7 +20610,7 @@
         <v>1793</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>3765</v>
+        <v>3761</v>
       </c>
       <c r="G308" s="5" t="s">
         <v>3274</v>
@@ -20624,7 +20619,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>1487</v>
       </c>
@@ -20641,7 +20636,7 @@
         <v>1488</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>3766</v>
+        <v>3762</v>
       </c>
       <c r="G309" s="5" t="s">
         <v>3471</v>
@@ -20650,7 +20645,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>981</v>
       </c>
@@ -20667,7 +20662,7 @@
         <v>982</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>3767</v>
+        <v>3763</v>
       </c>
       <c r="G310" s="5" t="s">
         <v>3116</v>
@@ -20676,7 +20671,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>50</v>
       </c>
@@ -20693,7 +20688,7 @@
         <v>51</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>3768</v>
+        <v>3764</v>
       </c>
       <c r="G311" s="5" t="s">
         <v>2858</v>
@@ -20702,7 +20697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>2175</v>
       </c>
@@ -20728,7 +20723,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>822</v>
       </c>
@@ -20745,7 +20740,7 @@
         <v>823</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>3769</v>
+        <v>3765</v>
       </c>
       <c r="G313" s="5" t="s">
         <v>3085</v>
@@ -20754,7 +20749,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>894</v>
       </c>
@@ -20771,7 +20766,7 @@
         <v>895</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>3770</v>
+        <v>3766</v>
       </c>
       <c r="G314" s="5" t="s">
         <v>3098</v>
@@ -20780,7 +20775,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>1668</v>
       </c>
@@ -20797,7 +20792,7 @@
         <v>1669</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>3771</v>
+        <v>3767</v>
       </c>
       <c r="G315" s="5" t="s">
         <v>3250</v>
@@ -20806,7 +20801,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>1216</v>
       </c>
@@ -20823,7 +20818,7 @@
         <v>1217</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>3772</v>
+        <v>3768</v>
       </c>
       <c r="G316" s="5" t="s">
         <v>3163</v>
@@ -20832,7 +20827,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>1276</v>
       </c>
@@ -20849,7 +20844,7 @@
         <v>1277</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>3773</v>
+        <v>3769</v>
       </c>
       <c r="G317" s="5" t="s">
         <v>3174</v>
@@ -20858,7 +20853,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>2452</v>
       </c>
@@ -20875,7 +20870,7 @@
         <v>2453</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>3774</v>
+        <v>3770</v>
       </c>
       <c r="G318" s="5" t="s">
         <v>3400</v>
@@ -20884,7 +20879,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>202</v>
       </c>
@@ -20901,7 +20896,7 @@
         <v>203</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>3775</v>
+        <v>3771</v>
       </c>
       <c r="G319" s="5" t="s">
         <v>2872</v>
@@ -20910,7 +20905,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>140</v>
       </c>
@@ -20927,7 +20922,7 @@
         <v>141</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>3776</v>
+        <v>3772</v>
       </c>
       <c r="G320" s="5" t="s">
         <v>2865</v>
@@ -20936,7 +20931,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>2739</v>
       </c>
@@ -20953,7 +20948,7 @@
         <v>2740</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>3777</v>
+        <v>3773</v>
       </c>
       <c r="G321" s="5" t="s">
         <v>3458</v>
@@ -20962,7 +20957,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>45</v>
       </c>
@@ -20979,7 +20974,7 @@
         <v>46</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>3778</v>
+        <v>3774</v>
       </c>
       <c r="G322" s="5" t="s">
         <v>2857</v>
@@ -20988,7 +20983,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>2344</v>
       </c>
@@ -21005,7 +21000,7 @@
         <v>2345</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>3779</v>
+        <v>3775</v>
       </c>
       <c r="G323" s="5" t="s">
         <v>3378</v>
@@ -21014,7 +21009,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>339</v>
       </c>
@@ -21031,7 +21026,7 @@
         <v>340</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>3780</v>
+        <v>3776</v>
       </c>
       <c r="G324" s="5" t="s">
         <v>2946</v>
@@ -21040,7 +21035,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>1801</v>
       </c>
@@ -21057,7 +21052,7 @@
         <v>1802</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>3781</v>
+        <v>3777</v>
       </c>
       <c r="G325" s="5" t="s">
         <v>3276</v>
@@ -21066,7 +21061,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>2131</v>
       </c>
@@ -21083,7 +21078,7 @@
         <v>2132</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>3782</v>
+        <v>3778</v>
       </c>
       <c r="G326" s="5" t="s">
         <v>3337</v>
@@ -21092,7 +21087,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>449</v>
       </c>
@@ -21109,7 +21104,7 @@
         <v>450</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>3783</v>
+        <v>3779</v>
       </c>
       <c r="G327" s="5" t="s">
         <v>2972</v>
@@ -21118,7 +21113,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>1409</v>
       </c>
@@ -21135,7 +21130,7 @@
         <v>1410</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>3784</v>
+        <v>3780</v>
       </c>
       <c r="G328" s="5" t="s">
         <v>3200</v>
@@ -21144,7 +21139,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>1291</v>
       </c>
@@ -21161,7 +21156,7 @@
         <v>1292</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>3785</v>
+        <v>3781</v>
       </c>
       <c r="G329" s="5" t="s">
         <v>3177</v>
@@ -21170,7 +21165,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>712</v>
       </c>
@@ -21187,7 +21182,7 @@
         <v>713</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>3786</v>
+        <v>3782</v>
       </c>
       <c r="G330" s="5" t="s">
         <v>3060</v>
@@ -21196,7 +21191,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>2467</v>
       </c>
@@ -21213,7 +21208,7 @@
         <v>2468</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>3787</v>
+        <v>3783</v>
       </c>
       <c r="G331" s="5" t="s">
         <v>3403</v>
@@ -21222,7 +21217,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>1399</v>
       </c>
@@ -21239,7 +21234,7 @@
         <v>1400</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>3788</v>
+        <v>3784</v>
       </c>
       <c r="G332" s="5" t="s">
         <v>3198</v>
@@ -21248,7 +21243,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>2632</v>
       </c>
@@ -21265,7 +21260,7 @@
         <v>2633</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>3789</v>
+        <v>3785</v>
       </c>
       <c r="G333" s="5" t="s">
         <v>3436</v>
@@ -21274,7 +21269,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>1506</v>
       </c>
@@ -21291,7 +21286,7 @@
         <v>1507</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>3790</v>
+        <v>3786</v>
       </c>
       <c r="G334" s="5" t="s">
         <v>3219</v>
@@ -21300,7 +21295,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>2749</v>
       </c>
@@ -21317,7 +21312,7 @@
         <v>2750</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>3791</v>
+        <v>3787</v>
       </c>
       <c r="G335" s="5" t="s">
         <v>3460</v>
@@ -21326,7 +21321,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>2472</v>
       </c>
@@ -21343,7 +21338,7 @@
         <v>2473</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>3792</v>
+        <v>3788</v>
       </c>
       <c r="G336" s="5" t="s">
         <v>3404</v>
@@ -21352,7 +21347,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>1081</v>
       </c>
@@ -21369,7 +21364,7 @@
         <v>1082</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>3793</v>
+        <v>3789</v>
       </c>
       <c r="G337" s="5" t="s">
         <v>3136</v>
@@ -21378,7 +21373,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>2637</v>
       </c>
@@ -21395,7 +21390,7 @@
         <v>2638</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>3794</v>
+        <v>3790</v>
       </c>
       <c r="G338" s="5" t="s">
         <v>3437</v>
@@ -21404,7 +21399,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>2477</v>
       </c>
@@ -21421,7 +21416,7 @@
         <v>2478</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>3795</v>
+        <v>3791</v>
       </c>
       <c r="G339" s="5" t="s">
         <v>3405</v>
@@ -21430,7 +21425,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>575</v>
       </c>
@@ -21447,7 +21442,7 @@
         <v>576</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>3796</v>
+        <v>3792</v>
       </c>
       <c r="G340" s="5" t="s">
         <v>3030</v>
@@ -21456,7 +21451,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>383</v>
       </c>
@@ -21473,7 +21468,7 @@
         <v>384</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>3797</v>
+        <v>3793</v>
       </c>
       <c r="G341" s="5" t="s">
         <v>2956</v>
@@ -21482,7 +21477,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>1835</v>
       </c>
@@ -21499,7 +21494,7 @@
         <v>1836</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>3798</v>
+        <v>3794</v>
       </c>
       <c r="G342" s="5" t="s">
         <v>3474</v>
@@ -21508,7 +21503,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>792</v>
       </c>
@@ -21525,7 +21520,7 @@
         <v>793</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>3799</v>
+        <v>3795</v>
       </c>
       <c r="G343" s="5" t="s">
         <v>3077</v>
@@ -21534,7 +21529,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>1993</v>
       </c>
@@ -21551,7 +21546,7 @@
         <v>1994</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>3800</v>
+        <v>3796</v>
       </c>
       <c r="G344" s="5" t="s">
         <v>3312</v>
@@ -21560,7 +21555,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>1014</v>
       </c>
@@ -21577,7 +21572,7 @@
         <v>1015</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>3801</v>
+        <v>3797</v>
       </c>
       <c r="G345" s="5" t="s">
         <v>3123</v>
@@ -21586,7 +21581,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>752</v>
       </c>
@@ -21603,7 +21598,7 @@
         <v>753</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>3802</v>
+        <v>3798</v>
       </c>
       <c r="G346" s="5" t="s">
         <v>3070</v>
@@ -21612,7 +21607,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>2457</v>
       </c>
@@ -21629,7 +21624,7 @@
         <v>2458</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>3803</v>
+        <v>3799</v>
       </c>
       <c r="G347" s="5" t="s">
         <v>3401</v>
@@ -21638,7 +21633,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>1086</v>
       </c>
@@ -21655,7 +21650,7 @@
         <v>1087</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>3804</v>
+        <v>3800</v>
       </c>
       <c r="G348" s="5" t="s">
         <v>3137</v>
@@ -21664,7 +21659,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>1404</v>
       </c>
@@ -21681,7 +21676,7 @@
         <v>1405</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>3805</v>
+        <v>3801</v>
       </c>
       <c r="G349" s="5" t="s">
         <v>3199</v>
@@ -21690,7 +21685,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>757</v>
       </c>
@@ -21707,7 +21702,7 @@
         <v>758</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>3806</v>
+        <v>3802</v>
       </c>
       <c r="G350" s="5" t="s">
         <v>3071</v>
@@ -21716,7 +21711,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>2189</v>
       </c>
@@ -21733,7 +21728,7 @@
         <v>2190</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>3807</v>
+        <v>3803</v>
       </c>
       <c r="G351" s="5" t="s">
         <v>3348</v>
@@ -21742,7 +21737,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>178</v>
       </c>
@@ -21759,7 +21754,7 @@
         <v>179</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>3808</v>
+        <v>3804</v>
       </c>
       <c r="G352" s="5" t="s">
         <v>2868</v>
@@ -21768,7 +21763,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>2292</v>
       </c>
@@ -21785,7 +21780,7 @@
         <v>2293</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>3809</v>
+        <v>3805</v>
       </c>
       <c r="G353" s="5" t="s">
         <v>3367</v>
@@ -21794,7 +21789,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>1414</v>
       </c>
@@ -21811,7 +21806,7 @@
         <v>1415</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>3810</v>
+        <v>3806</v>
       </c>
       <c r="G354" s="5" t="s">
         <v>3201</v>
@@ -21820,7 +21815,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>249</v>
       </c>
@@ -21837,7 +21832,7 @@
         <v>250</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>3811</v>
+        <v>3807</v>
       </c>
       <c r="G355" s="5" t="s">
         <v>2921</v>
@@ -21846,7 +21841,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>2199</v>
       </c>
@@ -21863,7 +21858,7 @@
         <v>2200</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>3812</v>
+        <v>3808</v>
       </c>
       <c r="G356" s="5" t="s">
         <v>3350</v>
@@ -21872,7 +21867,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>919</v>
       </c>
@@ -21889,7 +21884,7 @@
         <v>920</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>3813</v>
+        <v>3809</v>
       </c>
       <c r="G357" s="5" t="s">
         <v>3103</v>
@@ -21898,7 +21893,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>762</v>
       </c>
@@ -21915,7 +21910,7 @@
         <v>763</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>3814</v>
+        <v>3810</v>
       </c>
       <c r="G358" s="5" t="s">
         <v>3072</v>
@@ -21924,7 +21919,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>772</v>
       </c>
@@ -21941,7 +21936,7 @@
         <v>773</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>3815</v>
+        <v>3811</v>
       </c>
       <c r="G359" s="5" t="s">
         <v>3074</v>
@@ -21950,7 +21945,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>2204</v>
       </c>
@@ -21967,7 +21962,7 @@
         <v>2205</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>3816</v>
+        <v>3812</v>
       </c>
       <c r="G360" s="5" t="s">
         <v>3351</v>
@@ -21976,7 +21971,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>777</v>
       </c>
@@ -21993,7 +21988,7 @@
         <v>778</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>3817</v>
+        <v>3813</v>
       </c>
       <c r="G361" s="5" t="s">
         <v>3075</v>
@@ -22002,7 +21997,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>2209</v>
       </c>
@@ -22019,7 +22014,7 @@
         <v>2210</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>3818</v>
+        <v>3814</v>
       </c>
       <c r="G362" s="5" t="s">
         <v>3352</v>
@@ -22028,7 +22023,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>2297</v>
       </c>
@@ -22045,7 +22040,7 @@
         <v>2298</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>3819</v>
+        <v>3815</v>
       </c>
       <c r="G363" s="5" t="s">
         <v>3368</v>
@@ -22054,7 +22049,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>2022</v>
       </c>
@@ -22080,7 +22075,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>1019</v>
       </c>
@@ -22097,7 +22092,7 @@
         <v>1020</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>3820</v>
+        <v>3816</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>2880</v>
@@ -22106,7 +22101,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>278</v>
       </c>
@@ -22132,7 +22127,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>1438</v>
       </c>
@@ -22158,7 +22153,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>2369</v>
       </c>
@@ -22175,7 +22170,7 @@
         <v>2370</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>3821</v>
+        <v>3817</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>3383</v>
@@ -22184,7 +22179,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>797</v>
       </c>
@@ -22201,7 +22196,7 @@
         <v>798</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>3822</v>
+        <v>3818</v>
       </c>
       <c r="G369" s="5" t="s">
         <v>3078</v>
@@ -22210,7 +22205,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>1702</v>
       </c>
@@ -22227,7 +22222,7 @@
         <v>1703</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>3823</v>
+        <v>3819</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>3256</v>
@@ -22236,7 +22231,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>1032</v>
       </c>
@@ -22253,7 +22248,7 @@
         <v>1033</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>3824</v>
+        <v>3820</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>3126</v>
@@ -22262,7 +22257,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>2184</v>
       </c>
@@ -22279,7 +22274,7 @@
         <v>2185</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>3825</v>
+        <v>3821</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>3347</v>
@@ -22288,7 +22283,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>782</v>
       </c>
@@ -22305,7 +22300,7 @@
         <v>783</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>3826</v>
+        <v>3822</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>3076</v>
@@ -22314,7 +22309,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>2379</v>
       </c>
@@ -22331,7 +22326,7 @@
         <v>2380</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>3827</v>
+        <v>3823</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>3385</v>
@@ -22340,7 +22335,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>108</v>
       </c>
@@ -22357,7 +22352,7 @@
         <v>109</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>3828</v>
+        <v>3824</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>2898</v>
@@ -22366,7 +22361,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>254</v>
       </c>
@@ -22383,7 +22378,7 @@
         <v>255</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>3829</v>
+        <v>3825</v>
       </c>
       <c r="G376" s="5" t="s">
         <v>2922</v>
@@ -22392,7 +22387,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>344</v>
       </c>
@@ -22409,7 +22404,7 @@
         <v>345</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>3830</v>
+        <v>3826</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>2947</v>
@@ -22418,7 +22413,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>1923</v>
       </c>
@@ -22435,7 +22430,7 @@
         <v>1924</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>3831</v>
+        <v>3827</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>3300</v>
@@ -22444,7 +22439,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>1231</v>
       </c>
@@ -22461,7 +22456,7 @@
         <v>1232</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>3832</v>
+        <v>3828</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>3166</v>
@@ -22470,7 +22465,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>924</v>
       </c>
@@ -22487,7 +22482,7 @@
         <v>925</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>3833</v>
+        <v>3829</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>3104</v>
@@ -22496,7 +22491,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>454</v>
       </c>
@@ -22513,7 +22508,7 @@
         <v>455</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>3834</v>
+        <v>3830</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>2973</v>
@@ -22522,7 +22517,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>614</v>
       </c>
@@ -22539,7 +22534,7 @@
         <v>615</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>3835</v>
+        <v>3831</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>3038</v>
@@ -22548,7 +22543,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>1806</v>
       </c>
@@ -22574,7 +22569,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>1419</v>
       </c>
@@ -22591,7 +22586,7 @@
         <v>1420</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>3836</v>
+        <v>3832</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>3202</v>
@@ -22600,7 +22595,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>1311</v>
       </c>
@@ -22617,7 +22612,7 @@
         <v>1312</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>3837</v>
+        <v>3833</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>3181</v>
@@ -22626,7 +22621,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>619</v>
       </c>
@@ -22643,7 +22638,7 @@
         <v>620</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>3838</v>
+        <v>3834</v>
       </c>
       <c r="G386" s="5" t="s">
         <v>3039</v>
@@ -22652,7 +22647,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>2384</v>
       </c>
@@ -22669,7 +22664,7 @@
         <v>2385</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>3839</v>
+        <v>3835</v>
       </c>
       <c r="G387" s="5" t="s">
         <v>3386</v>
@@ -22678,7 +22673,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>1678</v>
       </c>
@@ -22695,7 +22690,7 @@
         <v>1679</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>3840</v>
+        <v>3836</v>
       </c>
       <c r="G388" s="5" t="s">
         <v>2882</v>
@@ -22704,7 +22699,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>2389</v>
       </c>
@@ -22730,7 +22725,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>1162</v>
       </c>
@@ -22756,7 +22751,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>65</v>
       </c>
@@ -22773,7 +22768,7 @@
         <v>66</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>3841</v>
+        <v>3837</v>
       </c>
       <c r="G391" s="5" t="s">
         <v>2861</v>
@@ -22782,7 +22777,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>1023</v>
       </c>
@@ -22799,7 +22794,7 @@
         <v>1024</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>3842</v>
+        <v>3838</v>
       </c>
       <c r="G392" s="5" t="s">
         <v>3124</v>
@@ -22808,7 +22803,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>2219</v>
       </c>
@@ -22825,7 +22820,7 @@
         <v>2220</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>3843</v>
+        <v>3839</v>
       </c>
       <c r="G393" s="5" t="s">
         <v>3353</v>
@@ -22834,7 +22829,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>2302</v>
       </c>
@@ -22851,7 +22846,7 @@
         <v>2303</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>3844</v>
+        <v>3840</v>
       </c>
       <c r="G394" s="5" t="s">
         <v>3369</v>
@@ -22860,7 +22855,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>2394</v>
       </c>
@@ -22877,7 +22872,7 @@
         <v>2395</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>3845</v>
+        <v>3841</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>3388</v>
@@ -22886,7 +22881,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>2399</v>
       </c>
@@ -22903,7 +22898,7 @@
         <v>2400</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>3846</v>
+        <v>3842</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>3389</v>
@@ -22912,7 +22907,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>1707</v>
       </c>
@@ -22929,7 +22924,7 @@
         <v>1708</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>3847</v>
+        <v>3843</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>3257</v>
@@ -22938,7 +22933,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>354</v>
       </c>
@@ -22955,7 +22950,7 @@
         <v>355</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>3848</v>
+        <v>3844</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>2949</v>
@@ -22964,7 +22959,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>1467</v>
       </c>
@@ -22981,7 +22976,7 @@
         <v>1468</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>3849</v>
+        <v>3845</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>3212</v>
@@ -22990,7 +22985,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>1587</v>
       </c>
@@ -23007,7 +23002,7 @@
         <v>1588</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>3850</v>
+        <v>3846</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>3234</v>
@@ -23016,7 +23011,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>2150</v>
       </c>
@@ -23033,7 +23028,7 @@
         <v>2151</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>3851</v>
+        <v>3847</v>
       </c>
       <c r="G401" s="5" t="s">
         <v>3341</v>
@@ -23042,7 +23037,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>609</v>
       </c>
@@ -23059,7 +23054,7 @@
         <v>610</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>3037</v>
@@ -23068,7 +23063,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>717</v>
       </c>
@@ -23085,7 +23080,7 @@
         <v>718</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>3852</v>
+        <v>3848</v>
       </c>
       <c r="G403" s="5" t="s">
         <v>3061</v>
@@ -23094,7 +23089,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>2647</v>
       </c>
@@ -23111,7 +23106,7 @@
         <v>2648</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>3853</v>
+        <v>3849</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>3439</v>
@@ -23120,7 +23115,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>1236</v>
       </c>
@@ -23137,7 +23132,7 @@
         <v>1237</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>3854</v>
+        <v>3850</v>
       </c>
       <c r="G405" s="5" t="s">
         <v>3167</v>
@@ -23146,7 +23141,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>2652</v>
       </c>
@@ -23163,7 +23158,7 @@
         <v>2653</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>3855</v>
+        <v>3851</v>
       </c>
       <c r="G406" s="5" t="s">
         <v>3440</v>
@@ -23172,7 +23167,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>1316</v>
       </c>
@@ -23189,7 +23184,7 @@
         <v>1317</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>3856</v>
+        <v>3852</v>
       </c>
       <c r="G407" s="5" t="s">
         <v>3182</v>
@@ -23198,7 +23193,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>737</v>
       </c>
@@ -23215,7 +23210,7 @@
         <v>738</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>3857</v>
+        <v>3853</v>
       </c>
       <c r="G408" s="5" t="s">
         <v>3068</v>
@@ -23224,7 +23219,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>1429</v>
       </c>
@@ -23241,7 +23236,7 @@
         <v>1430</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>3858</v>
+        <v>3854</v>
       </c>
       <c r="G409" s="5" t="s">
         <v>3204</v>
@@ -23250,7 +23245,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>707</v>
       </c>
@@ -23267,7 +23262,7 @@
         <v>708</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>3859</v>
+        <v>3855</v>
       </c>
       <c r="G410" s="5" t="s">
         <v>3059</v>
@@ -23276,7 +23271,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>1883</v>
       </c>
@@ -23293,7 +23288,7 @@
         <v>1884</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>3860</v>
+        <v>3856</v>
       </c>
       <c r="G411" s="5" t="s">
         <v>3292</v>
@@ -23302,7 +23297,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>1888</v>
       </c>
@@ -23319,7 +23314,7 @@
         <v>1889</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>3861</v>
+        <v>3857</v>
       </c>
       <c r="G412" s="5" t="s">
         <v>3293</v>
@@ -23328,7 +23323,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>1811</v>
       </c>
@@ -23345,7 +23340,7 @@
         <v>1812</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>3862</v>
+        <v>3858</v>
       </c>
       <c r="G413" s="5" t="s">
         <v>3278</v>
@@ -23354,7 +23349,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>1526</v>
       </c>
@@ -23371,7 +23366,7 @@
         <v>1527</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>3863</v>
+        <v>3859</v>
       </c>
       <c r="G414" s="5" t="s">
         <v>3223</v>
@@ -23380,7 +23375,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>415</v>
       </c>
@@ -23397,7 +23392,7 @@
         <v>416</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>3864</v>
+        <v>3860</v>
       </c>
       <c r="G415" s="5" t="s">
         <v>2963</v>
@@ -23406,7 +23401,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>1241</v>
       </c>
@@ -23423,7 +23418,7 @@
         <v>1242</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>3865</v>
+        <v>3861</v>
       </c>
       <c r="G416" s="5" t="s">
         <v>3168</v>
@@ -23432,7 +23427,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>2657</v>
       </c>
@@ -23449,7 +23444,7 @@
         <v>2658</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>3866</v>
+        <v>3862</v>
       </c>
       <c r="G417" s="5" t="s">
         <v>3441</v>
@@ -23458,7 +23453,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>229</v>
       </c>
@@ -23475,7 +23470,7 @@
         <v>230</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>3867</v>
+        <v>3863</v>
       </c>
       <c r="G418" s="5" t="s">
         <v>2918</v>
@@ -23484,7 +23479,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>359</v>
       </c>
@@ -23501,7 +23496,7 @@
         <v>360</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>3868</v>
+        <v>3864</v>
       </c>
       <c r="G419" s="5" t="s">
         <v>2950</v>
@@ -23510,7 +23505,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>1531</v>
       </c>
@@ -23527,7 +23522,7 @@
         <v>1532</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
       <c r="G420" s="5" t="s">
         <v>3224</v>
@@ -23536,7 +23531,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>1649</v>
       </c>
@@ -23553,7 +23548,7 @@
         <v>1650</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>3870</v>
+        <v>3866</v>
       </c>
       <c r="G421" s="5" t="s">
         <v>3246</v>
@@ -23562,7 +23557,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>1296</v>
       </c>
@@ -23579,7 +23574,7 @@
         <v>1297</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>3871</v>
+        <v>3867</v>
       </c>
       <c r="G422" s="5" t="s">
         <v>3178</v>
@@ -23588,7 +23583,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>1893</v>
       </c>
@@ -23605,7 +23600,7 @@
         <v>1894</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>3872</v>
+        <v>3868</v>
       </c>
       <c r="G423" s="5" t="s">
         <v>3294</v>
@@ -23614,7 +23609,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>787</v>
       </c>
@@ -23631,7 +23626,7 @@
         <v>788</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>3873</v>
+        <v>3869</v>
       </c>
       <c r="G424" s="5" t="s">
         <v>2877</v>
@@ -23640,7 +23635,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>624</v>
       </c>
@@ -23657,7 +23652,7 @@
         <v>625</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>3874</v>
+        <v>3870</v>
       </c>
       <c r="G425" s="5" t="s">
         <v>3040</v>
@@ -23666,7 +23661,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>2069</v>
       </c>
@@ -23683,7 +23678,7 @@
         <v>2070</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>3875</v>
+        <v>3871</v>
       </c>
       <c r="G426" s="5" t="s">
         <v>3325</v>
@@ -23692,7 +23687,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>1898</v>
       </c>
@@ -23709,7 +23704,7 @@
         <v>1899</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>3876</v>
+        <v>3872</v>
       </c>
       <c r="G427" s="5" t="s">
         <v>3295</v>
@@ -23718,7 +23713,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>2784</v>
       </c>
@@ -23735,7 +23730,7 @@
         <v>2785</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>3877</v>
+        <v>3873</v>
       </c>
       <c r="G428" s="5" t="s">
         <v>3016</v>
@@ -23744,7 +23739,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>1424</v>
       </c>
@@ -23761,7 +23756,7 @@
         <v>1425</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>3878</v>
+        <v>3874</v>
       </c>
       <c r="G429" s="5" t="s">
         <v>3203</v>
@@ -23770,7 +23765,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>2769</v>
       </c>
@@ -23787,7 +23782,7 @@
         <v>2770</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>3879</v>
+        <v>3875</v>
       </c>
       <c r="G430" s="5" t="s">
         <v>3463</v>
@@ -23796,7 +23791,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>24</v>
       </c>
@@ -23813,7 +23808,7 @@
         <v>25</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>3880</v>
+        <v>3876</v>
       </c>
       <c r="G431" s="5" t="s">
         <v>2887</v>
@@ -23822,7 +23817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>2419</v>
       </c>
@@ -23839,7 +23834,7 @@
         <v>2420</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>3881</v>
+        <v>3877</v>
       </c>
       <c r="G432" s="5" t="s">
         <v>3393</v>
@@ -23848,7 +23843,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>2447</v>
       </c>
@@ -23865,7 +23860,7 @@
         <v>2448</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>3882</v>
+        <v>3878</v>
       </c>
       <c r="G433" s="5" t="s">
         <v>3399</v>
@@ -23874,7 +23869,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>1820</v>
       </c>
@@ -23891,7 +23886,7 @@
         <v>1821</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>3883</v>
+        <v>3879</v>
       </c>
       <c r="G434" s="5" t="s">
         <v>3280</v>
@@ -23900,7 +23895,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>643</v>
       </c>
@@ -23917,7 +23912,7 @@
         <v>644</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>3884</v>
+        <v>3880</v>
       </c>
       <c r="G435" s="5" t="s">
         <v>3045</v>
@@ -23926,7 +23921,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>648</v>
       </c>
@@ -23943,7 +23938,7 @@
         <v>649</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>3885</v>
+        <v>3881</v>
       </c>
       <c r="G436" s="5" t="s">
         <v>3046</v>
@@ -23952,7 +23947,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>2088</v>
       </c>
@@ -23969,7 +23964,7 @@
         <v>2089</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>3886</v>
+        <v>3882</v>
       </c>
       <c r="G437" s="5" t="s">
         <v>3328</v>
@@ -23978,7 +23973,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>678</v>
       </c>
@@ -23995,7 +23990,7 @@
         <v>679</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>3887</v>
+        <v>3883</v>
       </c>
       <c r="G438" s="5" t="s">
         <v>3053</v>
@@ -24004,7 +23999,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>1797</v>
       </c>
@@ -24021,7 +24016,7 @@
         <v>1798</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>3888</v>
+        <v>3884</v>
       </c>
       <c r="G439" s="5" t="s">
         <v>3275</v>
@@ -24030,7 +24025,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>464</v>
       </c>
@@ -24047,7 +24042,7 @@
         <v>465</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>3889</v>
+        <v>3885</v>
       </c>
       <c r="G440" s="5" t="s">
         <v>2975</v>
@@ -24056,7 +24051,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>2026</v>
       </c>
@@ -24082,7 +24077,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>429</v>
       </c>
@@ -24108,7 +24103,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>2311</v>
       </c>
@@ -24125,7 +24120,7 @@
         <v>2312</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>3890</v>
+        <v>3886</v>
       </c>
       <c r="G443" s="5" t="s">
         <v>3371</v>
@@ -24134,7 +24129,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>1457</v>
       </c>
@@ -24160,7 +24155,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>2553</v>
       </c>
@@ -24186,7 +24181,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>1158</v>
       </c>
@@ -24212,7 +24207,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>1634</v>
       </c>
@@ -24229,7 +24224,7 @@
         <v>1635</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>3891</v>
+        <v>3887</v>
       </c>
       <c r="G447" s="5" t="s">
         <v>3243</v>
@@ -24238,7 +24233,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>364</v>
       </c>
@@ -24255,7 +24250,7 @@
         <v>365</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>3892</v>
+        <v>3888</v>
       </c>
       <c r="G448" s="5" t="s">
         <v>2951</v>
@@ -24264,7 +24259,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>188</v>
       </c>
@@ -24281,7 +24276,7 @@
         <v>189</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>3893</v>
+        <v>3889</v>
       </c>
       <c r="G449" s="5" t="s">
         <v>2869</v>
@@ -24290,7 +24285,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>934</v>
       </c>
@@ -24307,7 +24302,7 @@
         <v>935</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>3894</v>
+        <v>3890</v>
       </c>
       <c r="G450" s="5" t="s">
         <v>3106</v>
@@ -24316,7 +24311,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>2074</v>
       </c>
@@ -24333,7 +24328,7 @@
         <v>2075</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>3895</v>
+        <v>3891</v>
       </c>
       <c r="G451" s="5" t="s">
         <v>3326</v>
@@ -24342,7 +24337,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
         <v>2079</v>
       </c>
@@ -24359,7 +24354,7 @@
         <v>2080</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>3896</v>
+        <v>3892</v>
       </c>
       <c r="G452" s="5" t="s">
         <v>3486</v>
@@ -24368,7 +24363,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
         <v>1541</v>
       </c>
@@ -24385,7 +24380,7 @@
         <v>1542</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>3897</v>
+        <v>3893</v>
       </c>
       <c r="G453" s="5" t="s">
         <v>2881</v>
@@ -24394,7 +24389,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
         <v>2690</v>
       </c>
@@ -24411,7 +24406,7 @@
         <v>2691</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>3898</v>
+        <v>3894</v>
       </c>
       <c r="G454" s="5" t="s">
         <v>3448</v>
@@ -24420,7 +24415,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
         <v>2404</v>
       </c>
@@ -24437,7 +24432,7 @@
         <v>2405</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>3899</v>
+        <v>3895</v>
       </c>
       <c r="G455" s="5" t="s">
         <v>3390</v>
@@ -24446,7 +24441,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
         <v>308</v>
       </c>
@@ -24463,7 +24458,7 @@
         <v>309</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>3900</v>
+        <v>3896</v>
       </c>
       <c r="G456" s="5" t="s">
         <v>2940</v>
@@ -24472,7 +24467,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
         <v>2329</v>
       </c>
@@ -24489,7 +24484,7 @@
         <v>2330</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>3901</v>
+        <v>3897</v>
       </c>
       <c r="G457" s="5" t="s">
         <v>3375</v>
@@ -24498,7 +24493,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
         <v>1863</v>
       </c>
@@ -24515,7 +24510,7 @@
         <v>1864</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>3902</v>
+        <v>3898</v>
       </c>
       <c r="G458" s="5" t="s">
         <v>3288</v>
@@ -24524,7 +24519,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>2409</v>
       </c>
@@ -24541,7 +24536,7 @@
         <v>2410</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>3903</v>
+        <v>3899</v>
       </c>
       <c r="G459" s="5" t="s">
         <v>3391</v>
@@ -24550,7 +24545,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>1037</v>
       </c>
@@ -24567,7 +24562,7 @@
         <v>1038</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>3904</v>
+        <v>3900</v>
       </c>
       <c r="G460" s="5" t="s">
         <v>3127</v>
@@ -24576,7 +24571,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>1825</v>
       </c>
@@ -24593,7 +24588,7 @@
         <v>1826</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>3905</v>
+        <v>3901</v>
       </c>
       <c r="G461" s="5" t="s">
         <v>3281</v>
@@ -24602,7 +24597,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
         <v>2155</v>
       </c>
@@ -24619,7 +24614,7 @@
         <v>2156</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>3906</v>
+        <v>3902</v>
       </c>
       <c r="G462" s="5" t="s">
         <v>3342</v>
@@ -24628,7 +24623,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>1546</v>
       </c>
@@ -24645,7 +24640,7 @@
         <v>1547</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>3907</v>
+        <v>3903</v>
       </c>
       <c r="G463" s="5" t="s">
         <v>3472</v>
@@ -24654,7 +24649,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
         <v>1741</v>
       </c>
@@ -24680,7 +24675,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>2364</v>
       </c>
@@ -24697,7 +24692,7 @@
         <v>2365</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>3908</v>
+        <v>3904</v>
       </c>
       <c r="G465" s="5" t="s">
         <v>3382</v>
@@ -24706,7 +24701,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>2121</v>
       </c>
@@ -24723,7 +24718,7 @@
         <v>2122</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>3909</v>
+        <v>3905</v>
       </c>
       <c r="G466" s="5" t="s">
         <v>3335</v>
@@ -24732,7 +24727,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>1191</v>
       </c>
@@ -24749,7 +24744,7 @@
         <v>1192</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>3910</v>
+        <v>3906</v>
       </c>
       <c r="G467" s="5" t="s">
         <v>3158</v>
@@ -24758,7 +24753,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
         <v>2612</v>
       </c>
@@ -24775,7 +24770,7 @@
         <v>2613</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>3911</v>
+        <v>3907</v>
       </c>
       <c r="G468" s="5" t="s">
         <v>3432</v>
@@ -24784,7 +24779,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
         <v>722</v>
       </c>
@@ -24801,7 +24796,7 @@
         <v>723</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>3912</v>
+        <v>3908</v>
       </c>
       <c r="G469" s="5" t="s">
         <v>3062</v>
@@ -24810,7 +24805,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
         <v>2093</v>
       </c>
@@ -24827,7 +24822,7 @@
         <v>2094</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>3913</v>
+        <v>3909</v>
       </c>
       <c r="G470" s="5" t="s">
         <v>3329</v>
@@ -24836,7 +24831,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
         <v>2160</v>
       </c>
@@ -24853,7 +24848,7 @@
         <v>2161</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>3914</v>
+        <v>3910</v>
       </c>
       <c r="G471" s="5" t="s">
         <v>3343</v>
@@ -24862,7 +24857,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
         <v>653</v>
       </c>
@@ -24879,7 +24874,7 @@
         <v>654</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>3915</v>
+        <v>3911</v>
       </c>
       <c r="G472" s="5" t="s">
         <v>3047</v>
@@ -24888,7 +24883,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
         <v>2098</v>
       </c>
@@ -24905,7 +24900,7 @@
         <v>2099</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>3916</v>
+        <v>3912</v>
       </c>
       <c r="G473" s="5" t="s">
         <v>3330</v>
@@ -24914,7 +24909,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>2578</v>
       </c>
@@ -24931,7 +24926,7 @@
         <v>2579</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>3917</v>
+        <v>3913</v>
       </c>
       <c r="G474" s="5" t="s">
         <v>3425</v>
@@ -24940,7 +24935,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>2442</v>
       </c>
@@ -24957,7 +24952,7 @@
         <v>2443</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>3918</v>
+        <v>3914</v>
       </c>
       <c r="G475" s="5" t="s">
         <v>3398</v>
@@ -24966,7 +24961,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>2339</v>
       </c>
@@ -24983,7 +24978,7 @@
         <v>2340</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>3919</v>
+        <v>3915</v>
       </c>
       <c r="G476" s="5" t="s">
         <v>3377</v>
@@ -24992,7 +24987,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>1434</v>
       </c>
@@ -25018,7 +25013,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
         <v>585</v>
       </c>
@@ -25044,7 +25039,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
         <v>1903</v>
       </c>
@@ -25061,7 +25056,7 @@
         <v>1904</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>3920</v>
+        <v>3916</v>
       </c>
       <c r="G479" s="5" t="s">
         <v>3296</v>
@@ -25070,7 +25065,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
         <v>283</v>
       </c>
@@ -25096,7 +25091,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
         <v>83</v>
       </c>
@@ -25113,7 +25108,7 @@
         <v>84</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>3921</v>
+        <v>3917</v>
       </c>
       <c r="G481" s="5" t="s">
         <v>2891</v>
@@ -25122,7 +25117,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
         <v>1551</v>
       </c>
@@ -25139,7 +25134,7 @@
         <v>1552</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>3922</v>
+        <v>3918</v>
       </c>
       <c r="G482" s="5" t="s">
         <v>3226</v>
@@ -25148,7 +25143,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
         <v>1555</v>
       </c>
@@ -25165,7 +25160,7 @@
         <v>1556</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>3923</v>
+        <v>3919</v>
       </c>
       <c r="G483" s="5" t="s">
         <v>3227</v>
@@ -25174,7 +25169,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>1384</v>
       </c>
@@ -25191,7 +25186,7 @@
         <v>1385</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>3924</v>
+        <v>3920</v>
       </c>
       <c r="G484" s="5" t="s">
         <v>3196</v>
@@ -25200,7 +25195,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
         <v>469</v>
       </c>
@@ -25217,7 +25212,7 @@
         <v>470</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>3925</v>
+        <v>3921</v>
       </c>
       <c r="G485" s="5" t="s">
         <v>2976</v>
@@ -25226,7 +25221,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>1639</v>
       </c>
@@ -25243,7 +25238,7 @@
         <v>1640</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>3926</v>
+        <v>3922</v>
       </c>
       <c r="G486" s="5" t="s">
         <v>3244</v>
@@ -25252,7 +25247,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
         <v>2794</v>
       </c>
@@ -25269,7 +25264,7 @@
         <v>2795</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>3927</v>
+        <v>3923</v>
       </c>
       <c r="G487" s="5" t="s">
         <v>3014</v>
@@ -25278,7 +25273,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
         <v>1116</v>
       </c>
@@ -25295,7 +25290,7 @@
         <v>1117</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>3928</v>
+        <v>3924</v>
       </c>
       <c r="G488" s="5" t="s">
         <v>3143</v>
@@ -25304,7 +25299,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
         <v>369</v>
       </c>
@@ -25321,7 +25316,7 @@
         <v>370</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>3929</v>
+        <v>3925</v>
       </c>
       <c r="G489" s="5" t="s">
         <v>2952</v>
@@ -25330,7 +25325,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>516</v>
       </c>
@@ -25347,7 +25342,7 @@
         <v>517</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>3930</v>
+        <v>3926</v>
       </c>
       <c r="G490" s="5" t="s">
         <v>2987</v>
@@ -25356,7 +25351,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>193</v>
       </c>
@@ -25373,7 +25368,7 @@
         <v>194</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>3931</v>
+        <v>3927</v>
       </c>
       <c r="G491" s="5" t="s">
         <v>2870</v>
@@ -25382,7 +25377,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
         <v>1186</v>
       </c>
@@ -25399,7 +25394,7 @@
         <v>1187</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>3932</v>
+        <v>3928</v>
       </c>
       <c r="G492" s="5" t="s">
         <v>3157</v>
@@ -25408,7 +25403,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
         <v>2511</v>
       </c>
@@ -25425,7 +25420,7 @@
         <v>2512</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>3933</v>
+        <v>3929</v>
       </c>
       <c r="G493" s="5" t="s">
         <v>3412</v>
@@ -25434,7 +25429,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
         <v>219</v>
       </c>
@@ -25451,7 +25446,7 @@
         <v>220</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>3934</v>
+        <v>3930</v>
       </c>
       <c r="G494" s="5" t="s">
         <v>2917</v>
@@ -25460,7 +25455,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
         <v>1321</v>
       </c>
@@ -25477,7 +25472,7 @@
         <v>1322</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>3935</v>
+        <v>3931</v>
       </c>
       <c r="G495" s="5" t="s">
         <v>3183</v>
@@ -25486,7 +25481,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
         <v>2754</v>
       </c>
@@ -25503,7 +25498,7 @@
         <v>2755</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>3936</v>
+        <v>3932</v>
       </c>
       <c r="G496" s="5" t="s">
         <v>2886</v>
@@ -25512,7 +25507,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
         <v>531</v>
       </c>
@@ -25529,7 +25524,7 @@
         <v>532</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>3937</v>
+        <v>3933</v>
       </c>
       <c r="G497" s="5" t="s">
         <v>2990</v>
@@ -25538,7 +25533,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>1076</v>
       </c>
@@ -25555,7 +25550,7 @@
         <v>1077</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
       <c r="G498" s="5" t="s">
         <v>3135</v>
@@ -25564,7 +25559,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>972</v>
       </c>
@@ -25581,7 +25576,7 @@
         <v>973</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
       <c r="G499" s="5" t="s">
         <v>3114</v>
@@ -25590,7 +25585,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>1858</v>
       </c>
@@ -25607,7 +25602,7 @@
         <v>1859</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="G500" s="5" t="s">
         <v>3287</v>
@@ -25616,7 +25611,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
         <v>1326</v>
       </c>
@@ -25633,7 +25628,7 @@
         <v>1327</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>3941</v>
+        <v>3937</v>
       </c>
       <c r="G501" s="5" t="s">
         <v>3184</v>
@@ -25642,7 +25637,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>2334</v>
       </c>
@@ -25659,7 +25654,7 @@
         <v>2335</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>3942</v>
+        <v>3938</v>
       </c>
       <c r="G502" s="5" t="s">
         <v>3376</v>
@@ -25668,7 +25663,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
         <v>1331</v>
       </c>
@@ -25685,7 +25680,7 @@
         <v>1332</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>3943</v>
+        <v>3939</v>
       </c>
       <c r="G503" s="5" t="s">
         <v>3185</v>
@@ -25694,7 +25689,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
         <v>943</v>
       </c>
@@ -25711,7 +25706,7 @@
         <v>944</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>3944</v>
+        <v>3940</v>
       </c>
       <c r="G504" s="5" t="s">
         <v>3108</v>
@@ -25720,7 +25715,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
         <v>2194</v>
       </c>
@@ -25737,7 +25732,7 @@
         <v>2195</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
       <c r="G505" s="5" t="s">
         <v>3349</v>
@@ -25746,7 +25741,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
         <v>2414</v>
       </c>
@@ -25763,7 +25758,7 @@
         <v>2415</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
       <c r="G506" s="5" t="s">
         <v>3392</v>
@@ -25772,7 +25767,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
         <v>2126</v>
       </c>
@@ -25789,7 +25784,7 @@
         <v>2127</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
       <c r="G507" s="5" t="s">
         <v>3336</v>
@@ -25798,7 +25793,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
         <v>1560</v>
       </c>
@@ -25815,7 +25810,7 @@
         <v>1561</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>3948</v>
+        <v>3944</v>
       </c>
       <c r="G508" s="5" t="s">
         <v>3228</v>
@@ -25824,7 +25819,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
         <v>1301</v>
       </c>
@@ -25841,7 +25836,7 @@
         <v>1302</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>3949</v>
+        <v>3945</v>
       </c>
       <c r="G509" s="5" t="s">
         <v>3179</v>
@@ -25850,7 +25845,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
         <v>595</v>
       </c>
@@ -25867,7 +25862,7 @@
         <v>596</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
       <c r="G510" s="5" t="s">
         <v>3034</v>
@@ -25876,7 +25871,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
         <v>2482</v>
       </c>
@@ -25893,7 +25888,7 @@
         <v>2483</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>3951</v>
+        <v>3947</v>
       </c>
       <c r="G511" s="5" t="s">
         <v>3406</v>
@@ -25902,7 +25897,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
         <v>1042</v>
       </c>
@@ -25919,7 +25914,7 @@
         <v>1043</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>3952</v>
+        <v>3948</v>
       </c>
       <c r="G512" s="5" t="s">
         <v>3128</v>
@@ -25928,7 +25923,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
         <v>938</v>
       </c>
@@ -25954,7 +25949,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>1688</v>
       </c>
@@ -25971,7 +25966,7 @@
         <v>1689</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
       <c r="G514" s="5" t="s">
         <v>3253</v>
@@ -25980,7 +25975,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>2666</v>
       </c>
@@ -25997,7 +25992,7 @@
         <v>2667</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
       <c r="G515" s="5" t="s">
         <v>3443</v>
@@ -26006,7 +26001,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
         <v>2487</v>
       </c>
@@ -26023,7 +26018,7 @@
         <v>2488</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
       <c r="G516" s="5" t="s">
         <v>3407</v>
@@ -26032,7 +26027,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
         <v>521</v>
       </c>
@@ -26049,7 +26044,7 @@
         <v>522</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>3956</v>
+        <v>3952</v>
       </c>
       <c r="G517" s="5" t="s">
         <v>2988</v>
@@ -26058,7 +26053,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
         <v>388</v>
       </c>
@@ -26075,7 +26070,7 @@
         <v>389</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
       <c r="G518" s="5" t="s">
         <v>2957</v>
@@ -26084,7 +26079,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>802</v>
       </c>
@@ -26101,7 +26096,7 @@
         <v>803</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>3958</v>
+        <v>3954</v>
       </c>
       <c r="G519" s="5" t="s">
         <v>3079</v>
@@ -26110,7 +26105,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
         <v>2695</v>
       </c>
@@ -26127,7 +26122,7 @@
         <v>2696</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>3959</v>
+        <v>3955</v>
       </c>
       <c r="G520" s="5" t="s">
         <v>3449</v>
@@ -26136,7 +26131,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
         <v>2102</v>
       </c>
@@ -26153,7 +26148,7 @@
         <v>2103</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>3960</v>
+        <v>3956</v>
       </c>
       <c r="G521" s="5" t="s">
         <v>3331</v>
@@ -26162,7 +26157,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
         <v>2136</v>
       </c>
@@ -26179,7 +26174,7 @@
         <v>2137</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>3961</v>
+        <v>3957</v>
       </c>
       <c r="G522" s="5" t="s">
         <v>3338</v>
@@ -26188,7 +26183,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
         <v>663</v>
       </c>
@@ -26205,7 +26200,7 @@
         <v>664</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>3962</v>
+        <v>3958</v>
       </c>
       <c r="G523" s="5" t="s">
         <v>3049</v>
@@ -26214,7 +26209,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
         <v>2249</v>
       </c>
@@ -26240,7 +26235,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
         <v>1830</v>
       </c>
@@ -26257,7 +26252,7 @@
         <v>1831</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>3963</v>
+        <v>3959</v>
       </c>
       <c r="G525" s="5" t="s">
         <v>3282</v>
@@ -26266,7 +26261,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
         <v>817</v>
       </c>
@@ -26283,7 +26278,7 @@
         <v>818</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
       <c r="G526" s="5" t="s">
         <v>3084</v>
@@ -26292,7 +26287,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
         <v>93</v>
       </c>
@@ -26309,7 +26304,7 @@
         <v>94</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>3965</v>
+        <v>3961</v>
       </c>
       <c r="G527" s="5" t="s">
         <v>2894</v>
@@ -26318,7 +26313,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
         <v>1255</v>
       </c>
@@ -26335,7 +26330,7 @@
         <v>1256</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>3966</v>
+        <v>3962</v>
       </c>
       <c r="G528" s="5" t="s">
         <v>3170</v>
@@ -26344,7 +26339,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
         <v>313</v>
       </c>
@@ -26361,7 +26356,7 @@
         <v>314</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>3967</v>
+        <v>3963</v>
       </c>
       <c r="G529" s="5" t="s">
         <v>2941</v>
@@ -26370,7 +26365,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
         <v>70</v>
       </c>
@@ -26387,7 +26382,7 @@
         <v>71</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>3968</v>
+        <v>3964</v>
       </c>
       <c r="G530" s="5" t="s">
         <v>2889</v>
@@ -26396,7 +26391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
         <v>1978</v>
       </c>
@@ -26413,7 +26408,7 @@
         <v>1979</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>3969</v>
+        <v>3965</v>
       </c>
       <c r="G531" s="5" t="s">
         <v>3309</v>
@@ -26422,7 +26417,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
         <v>1968</v>
       </c>
@@ -26439,7 +26434,7 @@
         <v>1969</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>3970</v>
+        <v>3966</v>
       </c>
       <c r="G532" s="5" t="s">
         <v>3307</v>
@@ -26448,7 +26443,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
         <v>536</v>
       </c>
@@ -26465,7 +26460,7 @@
         <v>537</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>3971</v>
+        <v>3967</v>
       </c>
       <c r="G533" s="5" t="s">
         <v>2991</v>
@@ -26474,7 +26469,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
         <v>1953</v>
       </c>
@@ -26491,7 +26486,7 @@
         <v>1954</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>3972</v>
+        <v>3968</v>
       </c>
       <c r="G534" s="5" t="s">
         <v>3305</v>
@@ -26500,7 +26495,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
         <v>526</v>
       </c>
@@ -26517,7 +26512,7 @@
         <v>527</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>3973</v>
+        <v>3969</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>2989</v>
@@ -26526,7 +26521,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
         <v>2324</v>
       </c>
@@ -26543,7 +26538,7 @@
         <v>2325</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>3974</v>
+        <v>3970</v>
       </c>
       <c r="G536" s="5" t="s">
         <v>3374</v>
@@ -26552,7 +26547,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
         <v>2729</v>
       </c>
@@ -26569,7 +26564,7 @@
         <v>2730</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>3975</v>
+        <v>3971</v>
       </c>
       <c r="G537" s="5" t="s">
         <v>3456</v>
@@ -26578,7 +26573,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
         <v>239</v>
       </c>
@@ -26595,7 +26590,7 @@
         <v>240</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>3976</v>
+        <v>3972</v>
       </c>
       <c r="G538" s="5" t="s">
         <v>2920</v>
@@ -26604,7 +26599,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
         <v>501</v>
       </c>
@@ -26621,7 +26616,7 @@
         <v>502</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>3977</v>
+        <v>3973</v>
       </c>
       <c r="G539" s="5" t="s">
         <v>2984</v>
@@ -26630,7 +26625,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
         <v>1046</v>
       </c>
@@ -26647,7 +26642,7 @@
         <v>1047</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>3978</v>
+        <v>3974</v>
       </c>
       <c r="G540" s="5" t="s">
         <v>3129</v>
@@ -26656,7 +26651,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
         <v>1693</v>
       </c>
@@ -26673,7 +26668,7 @@
         <v>1694</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>3979</v>
+        <v>3975</v>
       </c>
       <c r="G541" s="5" t="s">
         <v>3254</v>
@@ -26682,7 +26677,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>2424</v>
       </c>
@@ -26699,7 +26694,7 @@
         <v>2425</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>3980</v>
+        <v>3976</v>
       </c>
       <c r="G542" s="5" t="s">
         <v>3394</v>
@@ -26708,7 +26703,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
         <v>702</v>
       </c>
@@ -26725,7 +26720,7 @@
         <v>703</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>3981</v>
+        <v>3977</v>
       </c>
       <c r="G543" s="5" t="s">
         <v>3058</v>
@@ -26734,7 +26729,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>1354</v>
       </c>
@@ -26751,7 +26746,7 @@
         <v>1355</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>3982</v>
+        <v>3978</v>
       </c>
       <c r="G544" s="5" t="s">
         <v>3190</v>
@@ -26760,7 +26755,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
         <v>1774</v>
       </c>
@@ -26777,7 +26772,7 @@
         <v>1775</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>3983</v>
+        <v>3979</v>
       </c>
       <c r="G545" s="5" t="s">
         <v>3270</v>
@@ -26786,7 +26781,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
         <v>2492</v>
       </c>
@@ -26803,7 +26798,7 @@
         <v>2493</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>3984</v>
+        <v>3980</v>
       </c>
       <c r="G546" s="5" t="s">
         <v>3408</v>
@@ -26812,7 +26807,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
         <v>379</v>
       </c>
@@ -26829,7 +26824,7 @@
         <v>380</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>3985</v>
+        <v>3981</v>
       </c>
       <c r="G547" s="5" t="s">
         <v>2955</v>
@@ -26838,7 +26833,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
         <v>98</v>
       </c>
@@ -26864,7 +26859,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
         <v>1963</v>
       </c>
@@ -26881,7 +26876,7 @@
         <v>1964</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>3986</v>
+        <v>3982</v>
       </c>
       <c r="G549" s="5" t="s">
         <v>3306</v>
@@ -26890,7 +26885,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
         <v>1565</v>
       </c>
@@ -26916,7 +26911,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
         <v>2714</v>
       </c>
@@ -26933,7 +26928,7 @@
         <v>2715</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>3987</v>
+        <v>3983</v>
       </c>
       <c r="G551" s="5" t="s">
         <v>3453</v>
@@ -26942,7 +26937,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
         <v>1574</v>
       </c>
@@ -26959,7 +26954,7 @@
         <v>1575</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>3988</v>
+        <v>3984</v>
       </c>
       <c r="G552" s="5" t="s">
         <v>3231</v>
@@ -26968,7 +26963,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
         <v>103</v>
       </c>
@@ -26985,7 +26980,7 @@
         <v>104</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>3989</v>
+        <v>3985</v>
       </c>
       <c r="G553" s="5" t="s">
         <v>2897</v>
@@ -26994,7 +26989,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
         <v>506</v>
       </c>
@@ -27011,7 +27006,7 @@
         <v>507</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>3990</v>
+        <v>3986</v>
       </c>
       <c r="G554" s="5" t="s">
         <v>2985</v>
@@ -27020,7 +27015,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
         <v>1908</v>
       </c>
@@ -27037,7 +27032,7 @@
         <v>1909</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>3991</v>
+        <v>3987</v>
       </c>
       <c r="G555" s="5" t="s">
         <v>3297</v>
@@ -27046,7 +27041,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
         <v>1570</v>
       </c>
@@ -27063,7 +27058,7 @@
         <v>1571</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>3992</v>
+        <v>3988</v>
       </c>
       <c r="G556" s="5" t="s">
         <v>3230</v>
@@ -27072,7 +27067,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="s">
         <v>1983</v>
       </c>
@@ -27089,7 +27084,7 @@
         <v>1984</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>3993</v>
+        <v>3989</v>
       </c>
       <c r="G557" s="5" t="s">
         <v>3310</v>
@@ -27098,7 +27093,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
         <v>953</v>
       </c>
@@ -27115,7 +27110,7 @@
         <v>954</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>3994</v>
+        <v>3990</v>
       </c>
       <c r="G558" s="5" t="s">
         <v>3110</v>
@@ -27124,7 +27119,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="2" t="s">
         <v>1644</v>
       </c>
@@ -27141,7 +27136,7 @@
         <v>1645</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="G559" s="5" t="s">
         <v>3245</v>
@@ -27150,7 +27145,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="2" t="s">
         <v>1345</v>
       </c>
@@ -27176,7 +27171,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="s">
         <v>1928</v>
       </c>
@@ -27202,7 +27197,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
         <v>1004</v>
       </c>
@@ -27219,7 +27214,7 @@
         <v>1005</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>3996</v>
+        <v>3992</v>
       </c>
       <c r="G562" s="5" t="s">
         <v>3121</v>
@@ -27228,7 +27223,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
         <v>209</v>
       </c>
@@ -27245,7 +27240,7 @@
         <v>210</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>3997</v>
+        <v>3993</v>
       </c>
       <c r="G563" s="5" t="s">
         <v>2915</v>
@@ -27254,7 +27249,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
         <v>459</v>
       </c>
@@ -27271,7 +27266,7 @@
         <v>460</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>3998</v>
+        <v>3994</v>
       </c>
       <c r="G564" s="5" t="s">
         <v>2974</v>
@@ -27280,7 +27275,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="s">
         <v>963</v>
       </c>
@@ -27297,7 +27292,7 @@
         <v>964</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>3999</v>
+        <v>3995</v>
       </c>
       <c r="G565" s="5" t="s">
         <v>3112</v>
@@ -27306,7 +27301,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
         <v>1056</v>
       </c>
@@ -27323,7 +27318,7 @@
         <v>1057</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>4000</v>
+        <v>3996</v>
       </c>
       <c r="G566" s="5" t="s">
         <v>3131</v>
@@ -27332,7 +27327,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
         <v>113</v>
       </c>
@@ -27349,7 +27344,7 @@
         <v>114</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>4001</v>
+        <v>3997</v>
       </c>
       <c r="G567" s="5" t="s">
         <v>2899</v>
@@ -27358,7 +27353,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>1683</v>
       </c>
@@ -27375,7 +27370,7 @@
         <v>1684</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>4002</v>
+        <v>3998</v>
       </c>
       <c r="G568" s="5" t="s">
         <v>3252</v>
@@ -27384,7 +27379,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="s">
         <v>1111</v>
       </c>
@@ -27401,7 +27396,7 @@
         <v>1112</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="G569" s="5" t="s">
         <v>3142</v>
@@ -27410,7 +27405,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="2" t="s">
         <v>2429</v>
       </c>
@@ -27427,7 +27422,7 @@
         <v>2430</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>4004</v>
+        <v>4000</v>
       </c>
       <c r="G570" s="5" t="s">
         <v>3395</v>
@@ -27436,7 +27431,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
         <v>1394</v>
       </c>
@@ -27453,7 +27448,7 @@
         <v>1395</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>4005</v>
+        <v>4001</v>
       </c>
       <c r="G571" s="5" t="s">
         <v>3470</v>
@@ -27462,7 +27457,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" ht="165" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
         <v>767</v>
       </c>
@@ -27479,7 +27474,7 @@
         <v>768</v>
       </c>
       <c r="F572" s="12" t="s">
-        <v>4006</v>
+        <v>4021</v>
       </c>
       <c r="G572" s="5" t="s">
         <v>3073</v>
@@ -27488,7 +27483,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
         <v>1263</v>
       </c>
@@ -27505,7 +27500,7 @@
         <v>1264</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="G573" s="5" t="s">
         <v>3171</v>
@@ -27514,7 +27509,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="s">
         <v>397</v>
       </c>
@@ -27531,7 +27526,7 @@
         <v>398</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>4008</v>
+        <v>4003</v>
       </c>
       <c r="G574" s="5" t="s">
         <v>2959</v>
@@ -27540,7 +27535,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="2" t="s">
         <v>198</v>
       </c>
@@ -27557,7 +27552,7 @@
         <v>199</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>4009</v>
+        <v>4004</v>
       </c>
       <c r="G575" s="5" t="s">
         <v>2871</v>
@@ -27566,7 +27561,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="2" t="s">
         <v>2827</v>
       </c>
@@ -27592,7 +27587,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
         <v>2719</v>
       </c>
@@ -27609,7 +27604,7 @@
         <v>2720</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>4010</v>
+        <v>4005</v>
       </c>
       <c r="G577" s="5" t="s">
         <v>3454</v>
@@ -27618,7 +27613,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="2" t="s">
         <v>1595</v>
       </c>
@@ -27635,7 +27630,7 @@
         <v>1596</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>4011</v>
+        <v>4006</v>
       </c>
       <c r="G578" s="5" t="s">
         <v>3236</v>
@@ -27644,7 +27639,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="2" t="s">
         <v>1583</v>
       </c>
@@ -27661,7 +27656,7 @@
         <v>1584</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>4012</v>
+        <v>4007</v>
       </c>
       <c r="G579" s="5" t="s">
         <v>3233</v>
@@ -27670,7 +27665,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" s="2" t="s">
         <v>1658</v>
       </c>
@@ -27687,7 +27682,7 @@
         <v>1659</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>4013</v>
+        <v>4008</v>
       </c>
       <c r="G580" s="5" t="s">
         <v>3248</v>
@@ -27696,7 +27691,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="2" t="s">
         <v>118</v>
       </c>
@@ -27713,7 +27708,7 @@
         <v>119</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>4014</v>
+        <v>4009</v>
       </c>
       <c r="G581" s="5" t="s">
         <v>2900</v>
@@ -27722,7 +27717,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="s">
         <v>1260</v>
       </c>
@@ -27739,7 +27734,7 @@
         <v>1261</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>4015</v>
+        <v>4010</v>
       </c>
       <c r="G582" s="5" t="s">
         <v>3465</v>
@@ -27748,7 +27743,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="s">
         <v>234</v>
       </c>
@@ -27765,7 +27760,7 @@
         <v>235</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>4016</v>
+        <v>4011</v>
       </c>
       <c r="G583" s="5" t="s">
         <v>2919</v>
@@ -27774,7 +27769,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="s">
         <v>2349</v>
       </c>
@@ -27791,7 +27786,7 @@
         <v>2350</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>4017</v>
+        <v>4012</v>
       </c>
       <c r="G584" s="5" t="s">
         <v>3379</v>
@@ -27800,7 +27795,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" s="2" t="s">
         <v>1268</v>
       </c>
@@ -27817,7 +27812,7 @@
         <v>1269</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>4018</v>
+        <v>4013</v>
       </c>
       <c r="G585" s="5" t="s">
         <v>3172</v>
@@ -27826,7 +27821,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
         <v>2675</v>
       </c>
@@ -27843,7 +27838,7 @@
         <v>2676</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>4019</v>
+        <v>4014</v>
       </c>
       <c r="G586" s="5" t="s">
         <v>3445</v>
@@ -27852,7 +27847,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
         <v>2165</v>
       </c>
@@ -27869,7 +27864,7 @@
         <v>2166</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>4020</v>
+        <v>4015</v>
       </c>
       <c r="G587" s="5" t="s">
         <v>3344</v>
@@ -27878,7 +27873,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
         <v>1286</v>
       </c>
@@ -27895,7 +27890,7 @@
         <v>1287</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>4021</v>
+        <v>4016</v>
       </c>
       <c r="G588" s="5" t="s">
         <v>3176</v>
@@ -27904,7 +27899,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" s="2" t="s">
         <v>1845</v>
       </c>
@@ -27930,7 +27925,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
         <v>2744</v>
       </c>
@@ -27947,7 +27942,7 @@
         <v>2745</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>4022</v>
+        <v>4017</v>
       </c>
       <c r="G590" s="5" t="s">
         <v>3459</v>
